--- a/converter/data/xlsx/15.5.B_SMJENA.XLSX
+++ b/converter/data/xlsx/15.5.B_SMJENA.XLSX
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Korisnik\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{680BAE6B-DC86-4746-99BA-C6F205E70A53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="21840" windowHeight="12450" tabRatio="478"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="478" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="B" sheetId="8" r:id="rId1"/>
@@ -15,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="883" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="872" uniqueCount="121">
   <si>
     <t>Predmetni profesor:</t>
   </si>
@@ -404,8 +410,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="43">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="43" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -2355,7 +2361,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="434">
+  <cellXfs count="433">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2911,12 +2917,6 @@
     </xf>
     <xf numFmtId="0" fontId="38" fillId="14" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="19" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3352,44 +3352,52 @@
     <xf numFmtId="0" fontId="36" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="111" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="112" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="113" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="114" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="38" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="76" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="77" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="78" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="79" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="80" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="89" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="85" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="90" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="89" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="85" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="91" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="42" fillId="0" borderId="78" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3398,59 +3406,56 @@
     <xf numFmtId="0" fontId="42" fillId="0" borderId="107" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="76" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="77" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="78" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="79" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="80" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="89" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="85" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="90" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="89" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="85" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="91" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="111" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="112" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="113" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="114" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="9">
-    <cellStyle name="Normal 2" xfId="2"/>
-    <cellStyle name="Normal 3" xfId="4"/>
-    <cellStyle name="Normalno 2" xfId="1"/>
-    <cellStyle name="Normalno 3" xfId="5"/>
-    <cellStyle name="Normalno 4" xfId="6"/>
-    <cellStyle name="Normalno 5" xfId="7"/>
-    <cellStyle name="Normalno 7" xfId="8"/>
-    <cellStyle name="Obično" xfId="0" builtinId="0"/>
-    <cellStyle name="Obično 3" xfId="3"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="Normal 3" xfId="4" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Normalno" xfId="0" builtinId="0"/>
+    <cellStyle name="Normalno 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Normalno 3" xfId="5" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="Normalno 4" xfId="6" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="Normalno 5" xfId="7" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="Normalno 7" xfId="8" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="Obično 3" xfId="3" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -3494,7 +3499,7 @@
         <xdr:cNvPr id="2" name="TextBox 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3554,7 +3559,7 @@
         <xdr:cNvPr id="4" name="Ravni poveznik sa strelicom 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E4445CA9-B926-4E02-B045-0B2948852BFB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E4445CA9-B926-4E02-B045-0B2948852BFB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3607,7 +3612,7 @@
         <xdr:cNvPr id="5" name="Ravni poveznik sa strelicom 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E74E1E07-97BA-81FB-BFE0-E8F512E4F87C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E74E1E07-97BA-81FB-BFE0-E8F512E4F87C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3660,7 +3665,7 @@
         <xdr:cNvPr id="7" name="Ravni poveznik sa strelicom 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D9A9DDB0-7996-A67F-C641-1B1A4635F14C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D9A9DDB0-7996-A67F-C641-1B1A4635F14C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3713,7 +3718,7 @@
         <xdr:cNvPr id="9" name="Ravni poveznik sa strelicom 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7DE5250B-1D29-CFC1-519C-7A1E718F220C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7DE5250B-1D29-CFC1-519C-7A1E718F220C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3766,7 +3771,7 @@
         <xdr:cNvPr id="11" name="Ravni poveznik sa strelicom 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{13FE681F-D46E-F9C6-CB12-F961EE7E6CE8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{13FE681F-D46E-F9C6-CB12-F961EE7E6CE8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3819,7 +3824,7 @@
         <xdr:cNvPr id="13" name="Ravni poveznik sa strelicom 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5D3AD52A-A0F4-990F-EB40-1BE57477DECE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5D3AD52A-A0F4-990F-EB40-1BE57477DECE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3872,7 +3877,7 @@
         <xdr:cNvPr id="6" name="Ravni poveznik sa strelicom 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{666CC25C-8E02-031A-0464-C6F75E69A736}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{666CC25C-8E02-031A-0464-C6F75E69A736}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3911,7 +3916,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office tema">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema sustava Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -3953,7 +3958,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3985,9 +3990,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4019,6 +4042,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -4194,141 +4235,141 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:AN64"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="75" workbookViewId="0">
-      <selection activeCell="V44" sqref="V44"/>
+      <selection activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="49" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="4" width="6.28515625" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="5.5703125" style="6" customWidth="1"/>
-    <col min="7" max="7" width="6.7109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.28515625" style="6" customWidth="1"/>
-    <col min="9" max="11" width="6.5703125" style="6" customWidth="1"/>
-    <col min="12" max="12" width="5.7109375" style="6" customWidth="1"/>
-    <col min="13" max="13" width="6.28515625" style="6" customWidth="1"/>
-    <col min="14" max="14" width="6.7109375" style="6" customWidth="1"/>
-    <col min="15" max="15" width="6.28515625" style="6" customWidth="1"/>
-    <col min="16" max="17" width="6.7109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="5.5703125" style="6" customWidth="1"/>
-    <col min="20" max="20" width="6.7109375" style="6" customWidth="1"/>
-    <col min="21" max="21" width="6.28515625" style="6" customWidth="1"/>
-    <col min="22" max="23" width="6.7109375" style="6" customWidth="1"/>
-    <col min="24" max="25" width="6.7109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="26" max="28" width="5.5703125" style="6" customWidth="1"/>
-    <col min="29" max="30" width="6.7109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="6.7109375" style="6" customWidth="1"/>
-    <col min="32" max="33" width="6.7109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="34" max="35" width="5.5703125" style="6" customWidth="1"/>
+    <col min="2" max="4" width="6.33203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="5.5546875" style="6" customWidth="1"/>
+    <col min="7" max="7" width="6.6640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.33203125" style="6" customWidth="1"/>
+    <col min="9" max="11" width="6.5546875" style="6" customWidth="1"/>
+    <col min="12" max="12" width="5.6640625" style="6" customWidth="1"/>
+    <col min="13" max="13" width="6.33203125" style="6" customWidth="1"/>
+    <col min="14" max="14" width="6.6640625" style="6" customWidth="1"/>
+    <col min="15" max="15" width="6.33203125" style="6" customWidth="1"/>
+    <col min="16" max="17" width="6.6640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="5.5546875" style="6" customWidth="1"/>
+    <col min="20" max="20" width="6.6640625" style="6" customWidth="1"/>
+    <col min="21" max="21" width="6.33203125" style="6" customWidth="1"/>
+    <col min="22" max="23" width="6.6640625" style="6" customWidth="1"/>
+    <col min="24" max="25" width="6.6640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="26" max="28" width="5.5546875" style="6" customWidth="1"/>
+    <col min="29" max="30" width="6.6640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="6.6640625" style="6" customWidth="1"/>
+    <col min="32" max="33" width="6.6640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="34" max="35" width="5.5546875" style="6" customWidth="1"/>
     <col min="36" max="36" width="5" style="6" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="5.7109375" style="6" customWidth="1"/>
-    <col min="38" max="38" width="6.5703125" style="6" customWidth="1"/>
-    <col min="39" max="39" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="40" max="16384" width="9.28515625" style="1"/>
+    <col min="37" max="37" width="5.6640625" style="6" customWidth="1"/>
+    <col min="38" max="38" width="6.5546875" style="6" customWidth="1"/>
+    <col min="39" max="39" width="7.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="40" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" ht="27" thickBot="1">
-      <c r="A1" s="420" t="s">
+    <row r="1" spans="1:38" ht="25.2" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="407" t="s">
         <v>98</v>
       </c>
-      <c r="B1" s="420"/>
-      <c r="C1" s="420"/>
-      <c r="D1" s="420"/>
-      <c r="E1" s="420"/>
-      <c r="F1" s="420"/>
-      <c r="G1" s="420"/>
-      <c r="H1" s="420"/>
-      <c r="I1" s="420"/>
-      <c r="J1" s="420"/>
-      <c r="K1" s="420"/>
-      <c r="L1" s="420"/>
-      <c r="M1" s="420"/>
-      <c r="N1" s="420"/>
-      <c r="O1" s="420"/>
-      <c r="P1" s="420"/>
-      <c r="Q1" s="420"/>
-      <c r="R1" s="420"/>
-      <c r="S1" s="420"/>
-      <c r="T1" s="420"/>
-      <c r="U1" s="420"/>
-      <c r="V1" s="420"/>
-      <c r="W1" s="420"/>
-      <c r="X1" s="420"/>
-      <c r="Y1" s="420"/>
-      <c r="Z1" s="420"/>
-      <c r="AA1" s="420"/>
-      <c r="AB1" s="420"/>
-      <c r="AC1" s="420"/>
-      <c r="AD1" s="420"/>
-      <c r="AE1" s="420"/>
-      <c r="AF1" s="420"/>
-      <c r="AG1" s="420"/>
-      <c r="AH1" s="420"/>
-      <c r="AI1" s="420"/>
-      <c r="AJ1" s="420"/>
-      <c r="AK1" s="420"/>
-      <c r="AL1" s="420"/>
-    </row>
-    <row r="2" spans="1:38" ht="18">
+      <c r="B1" s="407"/>
+      <c r="C1" s="407"/>
+      <c r="D1" s="407"/>
+      <c r="E1" s="407"/>
+      <c r="F1" s="407"/>
+      <c r="G1" s="407"/>
+      <c r="H1" s="407"/>
+      <c r="I1" s="407"/>
+      <c r="J1" s="407"/>
+      <c r="K1" s="407"/>
+      <c r="L1" s="407"/>
+      <c r="M1" s="407"/>
+      <c r="N1" s="407"/>
+      <c r="O1" s="407"/>
+      <c r="P1" s="407"/>
+      <c r="Q1" s="407"/>
+      <c r="R1" s="407"/>
+      <c r="S1" s="407"/>
+      <c r="T1" s="407"/>
+      <c r="U1" s="407"/>
+      <c r="V1" s="407"/>
+      <c r="W1" s="407"/>
+      <c r="X1" s="407"/>
+      <c r="Y1" s="407"/>
+      <c r="Z1" s="407"/>
+      <c r="AA1" s="407"/>
+      <c r="AB1" s="407"/>
+      <c r="AC1" s="407"/>
+      <c r="AD1" s="407"/>
+      <c r="AE1" s="407"/>
+      <c r="AF1" s="407"/>
+      <c r="AG1" s="407"/>
+      <c r="AH1" s="407"/>
+      <c r="AI1" s="407"/>
+      <c r="AJ1" s="407"/>
+      <c r="AK1" s="407"/>
+      <c r="AL1" s="407"/>
+    </row>
+    <row r="2" spans="1:38" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A2" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="B2" s="421" t="s">
+      <c r="B2" s="408" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="422"/>
-      <c r="D2" s="422"/>
-      <c r="E2" s="422"/>
-      <c r="F2" s="422"/>
-      <c r="G2" s="422"/>
-      <c r="H2" s="423"/>
-      <c r="I2" s="424" t="s">
+      <c r="C2" s="409"/>
+      <c r="D2" s="409"/>
+      <c r="E2" s="409"/>
+      <c r="F2" s="409"/>
+      <c r="G2" s="409"/>
+      <c r="H2" s="410"/>
+      <c r="I2" s="411" t="s">
         <v>2</v>
       </c>
-      <c r="J2" s="422"/>
-      <c r="K2" s="422"/>
-      <c r="L2" s="422"/>
-      <c r="M2" s="422"/>
-      <c r="N2" s="422"/>
-      <c r="O2" s="423"/>
-      <c r="P2" s="421" t="s">
+      <c r="J2" s="409"/>
+      <c r="K2" s="409"/>
+      <c r="L2" s="409"/>
+      <c r="M2" s="409"/>
+      <c r="N2" s="409"/>
+      <c r="O2" s="410"/>
+      <c r="P2" s="408" t="s">
         <v>3</v>
       </c>
-      <c r="Q2" s="422"/>
-      <c r="R2" s="422"/>
-      <c r="S2" s="422"/>
-      <c r="T2" s="422"/>
-      <c r="U2" s="422"/>
-      <c r="V2" s="423"/>
-      <c r="W2" s="428" t="s">
+      <c r="Q2" s="409"/>
+      <c r="R2" s="409"/>
+      <c r="S2" s="409"/>
+      <c r="T2" s="409"/>
+      <c r="U2" s="409"/>
+      <c r="V2" s="410"/>
+      <c r="W2" s="415" t="s">
         <v>4</v>
       </c>
-      <c r="X2" s="429"/>
-      <c r="Y2" s="429"/>
-      <c r="Z2" s="429"/>
-      <c r="AA2" s="429"/>
-      <c r="AB2" s="429"/>
-      <c r="AC2" s="429"/>
-      <c r="AD2" s="430"/>
-      <c r="AE2" s="425" t="s">
+      <c r="X2" s="416"/>
+      <c r="Y2" s="416"/>
+      <c r="Z2" s="416"/>
+      <c r="AA2" s="416"/>
+      <c r="AB2" s="416"/>
+      <c r="AC2" s="416"/>
+      <c r="AD2" s="417"/>
+      <c r="AE2" s="412" t="s">
         <v>16</v>
       </c>
-      <c r="AF2" s="426"/>
-      <c r="AG2" s="426"/>
-      <c r="AH2" s="426"/>
-      <c r="AI2" s="426"/>
-      <c r="AJ2" s="426"/>
-      <c r="AK2" s="426"/>
-      <c r="AL2" s="427"/>
-    </row>
-    <row r="3" spans="1:38" ht="15.75" thickBot="1">
+      <c r="AF2" s="413"/>
+      <c r="AG2" s="413"/>
+      <c r="AH2" s="413"/>
+      <c r="AI2" s="413"/>
+      <c r="AJ2" s="413"/>
+      <c r="AK2" s="413"/>
+      <c r="AL2" s="414"/>
+    </row>
+    <row r="3" spans="1:38" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="10" t="s">
         <v>0</v>
       </c>
@@ -4392,10 +4433,10 @@
       <c r="U3" s="3">
         <v>6</v>
       </c>
-      <c r="V3" s="243">
+      <c r="V3" s="241">
         <v>7</v>
       </c>
-      <c r="W3" s="303">
+      <c r="W3" s="301">
         <v>0</v>
       </c>
       <c r="X3" s="5">
@@ -4419,7 +4460,7 @@
       <c r="AD3" s="4">
         <v>7</v>
       </c>
-      <c r="AE3" s="303">
+      <c r="AE3" s="301">
         <v>0</v>
       </c>
       <c r="AF3" s="5">
@@ -4444,7 +4485,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:38" ht="18" customHeight="1" thickTop="1">
+    <row r="4" spans="1:38" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A4" s="15" t="s">
         <v>50</v>
       </c>
@@ -4490,8 +4531,8 @@
       </c>
       <c r="T4" s="56"/>
       <c r="U4" s="56"/>
-      <c r="V4" s="238"/>
-      <c r="W4" s="253"/>
+      <c r="V4" s="236"/>
+      <c r="W4" s="251"/>
       <c r="X4" s="55"/>
       <c r="Y4" s="56"/>
       <c r="Z4" s="56"/>
@@ -4502,10 +4543,10 @@
       <c r="AC4" s="56" t="s">
         <v>76</v>
       </c>
-      <c r="AD4" s="270" t="s">
+      <c r="AD4" s="268" t="s">
         <v>63</v>
       </c>
-      <c r="AE4" s="253"/>
+      <c r="AE4" s="251"/>
       <c r="AF4" s="55" t="s">
         <v>76</v>
       </c>
@@ -4524,7 +4565,7 @@
       <c r="AK4" s="55"/>
       <c r="AL4" s="58"/>
     </row>
-    <row r="5" spans="1:38" ht="18" customHeight="1">
+    <row r="5" spans="1:38" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="12" t="s">
         <v>51</v>
       </c>
@@ -4544,7 +4585,9 @@
       <c r="G5" s="60"/>
       <c r="H5" s="61"/>
       <c r="I5" s="62"/>
-      <c r="J5" s="63"/>
+      <c r="J5" s="63" t="s">
+        <v>66</v>
+      </c>
       <c r="K5" s="63" t="s">
         <v>75</v>
       </c>
@@ -4568,10 +4611,10 @@
       <c r="U5" s="23" t="s">
         <v>75</v>
       </c>
-      <c r="V5" s="244" t="s">
+      <c r="V5" s="242" t="s">
         <v>75</v>
       </c>
-      <c r="W5" s="254"/>
+      <c r="W5" s="252"/>
       <c r="X5" s="65" t="s">
         <v>68</v>
       </c>
@@ -4584,8 +4627,8 @@
       <c r="AA5" s="23"/>
       <c r="AB5" s="23"/>
       <c r="AC5" s="23"/>
-      <c r="AD5" s="271"/>
-      <c r="AE5" s="282"/>
+      <c r="AD5" s="269"/>
+      <c r="AE5" s="280"/>
       <c r="AF5" s="65" t="s">
         <v>62</v>
       </c>
@@ -4602,7 +4645,7 @@
       <c r="AK5" s="23"/>
       <c r="AL5" s="67"/>
     </row>
-    <row r="6" spans="1:38" ht="18" customHeight="1" thickBot="1">
+    <row r="6" spans="1:38" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="43" t="s">
         <v>37</v>
       </c>
@@ -4626,8 +4669,8 @@
       <c r="S6" s="72"/>
       <c r="T6" s="72"/>
       <c r="U6" s="72"/>
-      <c r="V6" s="245"/>
-      <c r="W6" s="255"/>
+      <c r="V6" s="243"/>
+      <c r="W6" s="253"/>
       <c r="X6" s="74" t="s">
         <v>79</v>
       </c>
@@ -4640,8 +4683,8 @@
       <c r="AA6" s="72"/>
       <c r="AB6" s="72"/>
       <c r="AC6" s="72"/>
-      <c r="AD6" s="272"/>
-      <c r="AE6" s="255"/>
+      <c r="AD6" s="270"/>
+      <c r="AE6" s="253"/>
       <c r="AF6" s="74" t="s">
         <v>64</v>
       </c>
@@ -4656,7 +4699,7 @@
       <c r="AK6" s="72"/>
       <c r="AL6" s="75"/>
     </row>
-    <row r="7" spans="1:38" ht="18" customHeight="1">
+    <row r="7" spans="1:38" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="11" t="s">
         <v>53</v>
       </c>
@@ -4671,12 +4714,8 @@
       <c r="F7" s="53" t="s">
         <v>79</v>
       </c>
-      <c r="G7" s="53" t="s">
-        <v>76</v>
-      </c>
-      <c r="H7" s="76" t="s">
-        <v>76</v>
-      </c>
+      <c r="G7" s="429"/>
+      <c r="H7" s="430"/>
       <c r="I7" s="77"/>
       <c r="J7" s="63"/>
       <c r="K7" s="63"/>
@@ -4691,7 +4730,7 @@
       <c r="T7" s="63"/>
       <c r="U7" s="63"/>
       <c r="V7" s="141"/>
-      <c r="W7" s="283" t="s">
+      <c r="W7" s="281" t="s">
         <v>66</v>
       </c>
       <c r="X7" s="77" t="s">
@@ -4713,7 +4752,7 @@
       <c r="AD7" s="141" t="s">
         <v>79</v>
       </c>
-      <c r="AE7" s="283" t="s">
+      <c r="AE7" s="281" t="s">
         <v>61</v>
       </c>
       <c r="AF7" s="77" t="s">
@@ -4726,17 +4765,17 @@
       <c r="AI7" s="63" t="s">
         <v>64</v>
       </c>
-      <c r="AJ7" s="235" t="s">
+      <c r="AJ7" s="233" t="s">
         <v>66</v>
       </c>
-      <c r="AK7" s="235" t="s">
+      <c r="AK7" s="233" t="s">
         <v>66</v>
       </c>
-      <c r="AL7" s="384" t="s">
+      <c r="AL7" s="382" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="8" spans="1:38" ht="18" customHeight="1">
+    <row r="8" spans="1:38" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="44" t="s">
         <v>80</v>
       </c>
@@ -4745,12 +4784,8 @@
       <c r="D8" s="53"/>
       <c r="E8" s="53"/>
       <c r="F8" s="53"/>
-      <c r="G8" s="53" t="s">
-        <v>75</v>
-      </c>
-      <c r="H8" s="76" t="s">
-        <v>75</v>
-      </c>
+      <c r="G8" s="429"/>
+      <c r="H8" s="430"/>
       <c r="I8" s="77"/>
       <c r="J8" s="63"/>
       <c r="K8" s="63"/>
@@ -4765,7 +4800,7 @@
       <c r="T8" s="63"/>
       <c r="U8" s="63"/>
       <c r="V8" s="141"/>
-      <c r="W8" s="283"/>
+      <c r="W8" s="281"/>
       <c r="X8" s="77" t="s">
         <v>75</v>
       </c>
@@ -4777,7 +4812,7 @@
       <c r="AB8" s="63"/>
       <c r="AC8" s="63"/>
       <c r="AD8" s="141"/>
-      <c r="AE8" s="283"/>
+      <c r="AE8" s="281"/>
       <c r="AF8" s="77"/>
       <c r="AG8" s="63"/>
       <c r="AH8" s="63"/>
@@ -4786,7 +4821,7 @@
       <c r="AK8" s="63"/>
       <c r="AL8" s="79"/>
     </row>
-    <row r="9" spans="1:38" ht="18" customHeight="1">
+    <row r="9" spans="1:38" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="44" t="s">
         <v>52</v>
       </c>
@@ -4799,8 +4834,8 @@
         <v>67</v>
       </c>
       <c r="F9" s="53"/>
-      <c r="G9" s="53"/>
-      <c r="H9" s="76"/>
+      <c r="G9" s="429"/>
+      <c r="H9" s="430"/>
       <c r="I9" s="77" t="s">
         <v>63</v>
       </c>
@@ -4819,7 +4854,7 @@
       <c r="T9" s="63"/>
       <c r="U9" s="63"/>
       <c r="V9" s="141"/>
-      <c r="W9" s="283"/>
+      <c r="W9" s="281"/>
       <c r="X9" s="77" t="s">
         <v>63</v>
       </c>
@@ -4829,7 +4864,7 @@
       <c r="AB9" s="63"/>
       <c r="AC9" s="63"/>
       <c r="AD9" s="141"/>
-      <c r="AE9" s="283"/>
+      <c r="AE9" s="281"/>
       <c r="AF9" s="77" t="s">
         <v>70</v>
       </c>
@@ -4852,7 +4887,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="10" spans="1:38" ht="18" customHeight="1">
+    <row r="10" spans="1:38" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="42" t="s">
         <v>38</v>
       </c>
@@ -4861,16 +4896,12 @@
       <c r="D10" s="83"/>
       <c r="E10" s="84"/>
       <c r="F10" s="84"/>
-      <c r="G10" s="228" t="s">
-        <v>77</v>
-      </c>
-      <c r="H10" s="229" t="s">
-        <v>77</v>
-      </c>
-      <c r="I10" s="338" t="s">
+      <c r="G10" s="431"/>
+      <c r="H10" s="432"/>
+      <c r="I10" s="336" t="s">
         <v>63</v>
       </c>
-      <c r="J10" s="339" t="s">
+      <c r="J10" s="337" t="s">
         <v>63</v>
       </c>
       <c r="K10" s="87"/>
@@ -4885,46 +4916,46 @@
       <c r="T10" s="91"/>
       <c r="U10" s="91"/>
       <c r="V10" s="119"/>
-      <c r="W10" s="262" t="s">
+      <c r="W10" s="260" t="s">
         <v>67</v>
       </c>
-      <c r="X10" s="231" t="s">
+      <c r="X10" s="229" t="s">
         <v>77</v>
       </c>
-      <c r="Y10" s="230" t="s">
+      <c r="Y10" s="228" t="s">
         <v>77</v>
       </c>
       <c r="Z10" s="91"/>
-      <c r="AA10" s="230" t="s">
+      <c r="AA10" s="228" t="s">
         <v>62</v>
       </c>
-      <c r="AB10" s="230" t="s">
+      <c r="AB10" s="228" t="s">
         <v>62</v>
       </c>
       <c r="AC10" s="91" t="s">
         <v>62</v>
       </c>
       <c r="AD10" s="119"/>
-      <c r="AE10" s="262" t="s">
+      <c r="AE10" s="260" t="s">
         <v>63</v>
       </c>
-      <c r="AF10" s="231" t="s">
+      <c r="AF10" s="229" t="s">
         <v>73</v>
       </c>
-      <c r="AG10" s="230" t="s">
+      <c r="AG10" s="228" t="s">
         <v>73</v>
       </c>
-      <c r="AH10" s="230" t="s">
+      <c r="AH10" s="228" t="s">
         <v>61</v>
       </c>
-      <c r="AI10" s="230" t="s">
+      <c r="AI10" s="228" t="s">
         <v>61</v>
       </c>
       <c r="AJ10" s="91"/>
       <c r="AK10" s="91"/>
       <c r="AL10" s="93"/>
     </row>
-    <row r="11" spans="1:38" ht="18" customHeight="1" thickBot="1">
+    <row r="11" spans="1:38" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="43" t="s">
         <v>7</v>
       </c>
@@ -4948,16 +4979,16 @@
       <c r="S11" s="72"/>
       <c r="T11" s="72"/>
       <c r="U11" s="72"/>
-      <c r="V11" s="245"/>
-      <c r="W11" s="255"/>
+      <c r="V11" s="243"/>
+      <c r="W11" s="253"/>
       <c r="X11" s="74"/>
       <c r="Y11" s="72"/>
       <c r="Z11" s="72"/>
       <c r="AA11" s="72"/>
       <c r="AB11" s="72"/>
       <c r="AC11" s="72"/>
-      <c r="AD11" s="245"/>
-      <c r="AE11" s="255"/>
+      <c r="AD11" s="243"/>
+      <c r="AE11" s="253"/>
       <c r="AF11" s="74"/>
       <c r="AG11" s="72"/>
       <c r="AH11" s="72"/>
@@ -4965,14 +4996,14 @@
       <c r="AJ11" s="162" t="s">
         <v>60</v>
       </c>
-      <c r="AK11" s="236" t="s">
+      <c r="AK11" s="234" t="s">
         <v>60</v>
       </c>
-      <c r="AL11" s="237" t="s">
+      <c r="AL11" s="235" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="12" spans="1:38" ht="18" customHeight="1">
+    <row r="12" spans="1:38" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="44" t="s">
         <v>14</v>
       </c>
@@ -5017,7 +5048,7 @@
       <c r="V12" s="141" t="s">
         <v>60</v>
       </c>
-      <c r="W12" s="256"/>
+      <c r="W12" s="254"/>
       <c r="X12" s="77"/>
       <c r="Y12" s="63"/>
       <c r="Z12" s="63"/>
@@ -5025,7 +5056,7 @@
       <c r="AB12" s="63"/>
       <c r="AC12" s="63"/>
       <c r="AD12" s="141"/>
-      <c r="AE12" s="256"/>
+      <c r="AE12" s="254"/>
       <c r="AF12" s="77"/>
       <c r="AG12" s="63"/>
       <c r="AH12" s="63"/>
@@ -5034,7 +5065,7 @@
       <c r="AK12" s="63"/>
       <c r="AL12" s="79"/>
     </row>
-    <row r="13" spans="1:38" ht="18" customHeight="1">
+    <row r="13" spans="1:38" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="44" t="s">
         <v>43</v>
       </c>
@@ -5063,7 +5094,7 @@
       <c r="T13" s="63"/>
       <c r="U13" s="63"/>
       <c r="V13" s="141"/>
-      <c r="W13" s="256"/>
+      <c r="W13" s="254"/>
       <c r="X13" s="77"/>
       <c r="Y13" s="63"/>
       <c r="Z13" s="63"/>
@@ -5071,7 +5102,7 @@
       <c r="AB13" s="63"/>
       <c r="AC13" s="63"/>
       <c r="AD13" s="141"/>
-      <c r="AE13" s="256"/>
+      <c r="AE13" s="254"/>
       <c r="AF13" s="77"/>
       <c r="AG13" s="77"/>
       <c r="AH13" s="63"/>
@@ -5080,14 +5111,14 @@
       <c r="AK13" s="63"/>
       <c r="AL13" s="79"/>
     </row>
-    <row r="14" spans="1:38" ht="18" customHeight="1">
+    <row r="14" spans="1:38" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="44" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="233" t="s">
+      <c r="B14" s="231" t="s">
         <v>73</v>
       </c>
-      <c r="C14" s="234" t="s">
+      <c r="C14" s="232" t="s">
         <v>78</v>
       </c>
       <c r="D14" s="96"/>
@@ -5095,10 +5126,10 @@
       <c r="F14" s="96"/>
       <c r="G14" s="84"/>
       <c r="H14" s="97"/>
-      <c r="I14" s="340" t="s">
+      <c r="I14" s="338" t="s">
         <v>64</v>
       </c>
-      <c r="J14" s="341" t="s">
+      <c r="J14" s="339" t="s">
         <v>75</v>
       </c>
       <c r="K14" s="88" t="s">
@@ -5110,34 +5141,34 @@
       <c r="O14" s="92"/>
       <c r="P14" s="87"/>
       <c r="Q14" s="63"/>
-      <c r="R14" s="232" t="s">
+      <c r="R14" s="230" t="s">
         <v>61</v>
       </c>
-      <c r="S14" s="232" t="s">
+      <c r="S14" s="230" t="s">
         <v>63</v>
       </c>
-      <c r="T14" s="232" t="s">
+      <c r="T14" s="230" t="s">
         <v>75</v>
       </c>
-      <c r="U14" s="232" t="s">
+      <c r="U14" s="230" t="s">
         <v>67</v>
       </c>
       <c r="V14" s="141"/>
-      <c r="W14" s="256"/>
-      <c r="X14" s="293" t="s">
+      <c r="W14" s="254"/>
+      <c r="X14" s="291" t="s">
         <v>62</v>
       </c>
-      <c r="Y14" s="294" t="s">
+      <c r="Y14" s="292" t="s">
         <v>68</v>
       </c>
       <c r="Z14" s="63"/>
-      <c r="AA14" s="294" t="s">
+      <c r="AA14" s="292" t="s">
         <v>66</v>
       </c>
       <c r="AB14" s="63"/>
       <c r="AC14" s="63"/>
       <c r="AD14" s="141"/>
-      <c r="AE14" s="256"/>
+      <c r="AE14" s="254"/>
       <c r="AF14" s="87"/>
       <c r="AG14" s="77"/>
       <c r="AH14" s="63"/>
@@ -5146,7 +5177,7 @@
       <c r="AK14" s="63"/>
       <c r="AL14" s="79"/>
     </row>
-    <row r="15" spans="1:38" ht="18" customHeight="1">
+    <row r="15" spans="1:38" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="45" t="s">
         <v>10</v>
       </c>
@@ -5187,7 +5218,7 @@
         <v>67</v>
       </c>
       <c r="V15" s="141"/>
-      <c r="W15" s="256"/>
+      <c r="W15" s="254"/>
       <c r="X15" s="77" t="s">
         <v>62</v>
       </c>
@@ -5201,7 +5232,7 @@
       <c r="AB15" s="63"/>
       <c r="AC15" s="63"/>
       <c r="AD15" s="141"/>
-      <c r="AE15" s="256"/>
+      <c r="AE15" s="254"/>
       <c r="AF15" s="77"/>
       <c r="AG15" s="77"/>
       <c r="AH15" s="63"/>
@@ -5210,7 +5241,7 @@
       <c r="AK15" s="63"/>
       <c r="AL15" s="79"/>
     </row>
-    <row r="16" spans="1:38" ht="18" customHeight="1">
+    <row r="16" spans="1:38" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="45" t="s">
         <v>25</v>
       </c>
@@ -5241,7 +5272,7 @@
       <c r="T16" s="63"/>
       <c r="U16" s="88"/>
       <c r="V16" s="141"/>
-      <c r="W16" s="256"/>
+      <c r="W16" s="254"/>
       <c r="X16" s="77"/>
       <c r="Y16" s="88"/>
       <c r="Z16" s="63"/>
@@ -5249,7 +5280,7 @@
       <c r="AB16" s="63"/>
       <c r="AC16" s="63"/>
       <c r="AD16" s="141"/>
-      <c r="AE16" s="256"/>
+      <c r="AE16" s="254"/>
       <c r="AF16" s="77"/>
       <c r="AG16" s="77"/>
       <c r="AH16" s="63"/>
@@ -5258,7 +5289,7 @@
       <c r="AK16" s="63"/>
       <c r="AL16" s="79"/>
     </row>
-    <row r="17" spans="1:40" ht="18" customHeight="1">
+    <row r="17" spans="1:40" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="45" t="s">
         <v>33</v>
       </c>
@@ -5289,7 +5320,7 @@
       </c>
       <c r="U17" s="88"/>
       <c r="V17" s="141"/>
-      <c r="W17" s="256"/>
+      <c r="W17" s="254"/>
       <c r="X17" s="77"/>
       <c r="Y17" s="87"/>
       <c r="Z17" s="63"/>
@@ -5301,7 +5332,7 @@
       <c r="AD17" s="141" t="s">
         <v>66</v>
       </c>
-      <c r="AE17" s="256" t="s">
+      <c r="AE17" s="254" t="s">
         <v>74</v>
       </c>
       <c r="AF17" s="77"/>
@@ -5312,7 +5343,7 @@
       <c r="AK17" s="63"/>
       <c r="AL17" s="79"/>
     </row>
-    <row r="18" spans="1:40" ht="18" customHeight="1">
+    <row r="18" spans="1:40" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="42" t="s">
         <v>42</v>
       </c>
@@ -5353,11 +5384,11 @@
       </c>
       <c r="U18" s="88"/>
       <c r="V18" s="148"/>
-      <c r="W18" s="258"/>
-      <c r="X18" s="288" t="s">
+      <c r="W18" s="256"/>
+      <c r="X18" s="286" t="s">
         <v>84</v>
       </c>
-      <c r="Y18" s="288" t="s">
+      <c r="Y18" s="286" t="s">
         <v>84</v>
       </c>
       <c r="Z18" s="88" t="s">
@@ -5367,13 +5398,13 @@
         <v>76</v>
       </c>
       <c r="AB18" s="88"/>
-      <c r="AC18" s="301" t="s">
+      <c r="AC18" s="299" t="s">
         <v>60</v>
       </c>
-      <c r="AD18" s="302" t="s">
+      <c r="AD18" s="300" t="s">
         <v>60</v>
       </c>
-      <c r="AE18" s="258"/>
+      <c r="AE18" s="256"/>
       <c r="AF18" s="87"/>
       <c r="AG18" s="87"/>
       <c r="AH18" s="88"/>
@@ -5382,7 +5413,7 @@
       <c r="AK18" s="88"/>
       <c r="AL18" s="99"/>
     </row>
-    <row r="19" spans="1:40" ht="18" customHeight="1" thickBot="1">
+    <row r="19" spans="1:40" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="8" t="s">
         <v>27</v>
       </c>
@@ -5412,8 +5443,8 @@
       <c r="U19" s="72" t="s">
         <v>64</v>
       </c>
-      <c r="V19" s="245"/>
-      <c r="W19" s="255"/>
+      <c r="V19" s="243"/>
+      <c r="W19" s="253"/>
       <c r="X19" s="74"/>
       <c r="Y19" s="74"/>
       <c r="Z19" s="72"/>
@@ -5422,8 +5453,8 @@
         <v>68</v>
       </c>
       <c r="AC19" s="72"/>
-      <c r="AD19" s="245"/>
-      <c r="AE19" s="255"/>
+      <c r="AD19" s="243"/>
+      <c r="AE19" s="253"/>
       <c r="AF19" s="74"/>
       <c r="AG19" s="72"/>
       <c r="AH19" s="72"/>
@@ -5436,7 +5467,7 @@
       </c>
       <c r="AL19" s="75"/>
     </row>
-    <row r="20" spans="1:40" ht="18" customHeight="1">
+    <row r="20" spans="1:40" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="42" t="s">
         <v>35</v>
       </c>
@@ -5467,15 +5498,15 @@
       <c r="T20" s="91"/>
       <c r="U20" s="91"/>
       <c r="V20" s="119"/>
-      <c r="W20" s="257"/>
-      <c r="X20" s="250"/>
+      <c r="W20" s="255"/>
+      <c r="X20" s="248"/>
       <c r="Y20" s="100"/>
       <c r="Z20" s="91"/>
       <c r="AA20" s="91"/>
       <c r="AB20" s="91"/>
       <c r="AC20" s="91"/>
       <c r="AD20" s="119"/>
-      <c r="AE20" s="257"/>
+      <c r="AE20" s="255"/>
       <c r="AF20" s="90"/>
       <c r="AG20" s="91"/>
       <c r="AH20" s="91"/>
@@ -5484,7 +5515,7 @@
       <c r="AK20" s="91"/>
       <c r="AL20" s="93"/>
     </row>
-    <row r="21" spans="1:40" ht="18" customHeight="1">
+    <row r="21" spans="1:40" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="42" t="s">
         <v>15</v>
       </c>
@@ -5513,10 +5544,10 @@
       <c r="R21" s="91" t="s">
         <v>75</v>
       </c>
-      <c r="S21" s="292" t="s">
+      <c r="S21" s="290" t="s">
         <v>60</v>
       </c>
-      <c r="T21" s="292" t="s">
+      <c r="T21" s="290" t="s">
         <v>60</v>
       </c>
       <c r="U21" s="91" t="s">
@@ -5525,7 +5556,7 @@
       <c r="V21" s="119" t="s">
         <v>63</v>
       </c>
-      <c r="W21" s="257"/>
+      <c r="W21" s="255"/>
       <c r="X21" s="90"/>
       <c r="Y21" s="91"/>
       <c r="Z21" s="91" t="s">
@@ -5537,7 +5568,7 @@
       <c r="AB21" s="91"/>
       <c r="AC21" s="91"/>
       <c r="AD21" s="119"/>
-      <c r="AE21" s="257"/>
+      <c r="AE21" s="255"/>
       <c r="AF21" s="90" t="s">
         <v>75</v>
       </c>
@@ -5556,7 +5587,7 @@
       </c>
       <c r="AL21" s="93"/>
     </row>
-    <row r="22" spans="1:40" ht="18" customHeight="1">
+    <row r="22" spans="1:40" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="42" t="s">
         <v>39</v>
       </c>
@@ -5572,7 +5603,7 @@
       <c r="G22" s="84" t="s">
         <v>66</v>
       </c>
-      <c r="H22" s="383" t="s">
+      <c r="H22" s="381" t="s">
         <v>66</v>
       </c>
       <c r="I22" s="90" t="s">
@@ -5603,7 +5634,7 @@
       <c r="T22" s="91"/>
       <c r="U22" s="91"/>
       <c r="V22" s="119"/>
-      <c r="W22" s="257"/>
+      <c r="W22" s="255"/>
       <c r="X22" s="90"/>
       <c r="Y22" s="91"/>
       <c r="Z22" s="91" t="s">
@@ -5621,7 +5652,7 @@
       <c r="AD22" s="148" t="s">
         <v>62</v>
       </c>
-      <c r="AE22" s="257"/>
+      <c r="AE22" s="255"/>
       <c r="AF22" s="90"/>
       <c r="AG22" s="91"/>
       <c r="AH22" s="91"/>
@@ -5634,7 +5665,7 @@
       </c>
       <c r="AL22" s="93"/>
     </row>
-    <row r="23" spans="1:40" ht="18" customHeight="1" thickBot="1">
+    <row r="23" spans="1:40" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="43" t="s">
         <v>103</v>
       </c>
@@ -5672,10 +5703,10 @@
       <c r="U23" s="72" t="s">
         <v>66</v>
       </c>
-      <c r="V23" s="245" t="s">
+      <c r="V23" s="243" t="s">
         <v>61</v>
       </c>
-      <c r="W23" s="255"/>
+      <c r="W23" s="253"/>
       <c r="X23" s="74" t="s">
         <v>67</v>
       </c>
@@ -5686,8 +5717,8 @@
       <c r="AA23" s="72"/>
       <c r="AB23" s="72"/>
       <c r="AC23" s="72"/>
-      <c r="AD23" s="273"/>
-      <c r="AE23" s="266"/>
+      <c r="AD23" s="271"/>
+      <c r="AE23" s="264"/>
       <c r="AF23" s="74" t="s">
         <v>67</v>
       </c>
@@ -5710,48 +5741,48 @@
         <v>63</v>
       </c>
     </row>
-    <row r="24" spans="1:40" ht="18" customHeight="1">
+    <row r="24" spans="1:40" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="41" t="s">
         <v>23</v>
       </c>
-      <c r="B24" s="363" t="s">
+      <c r="B24" s="361" t="s">
         <v>79</v>
       </c>
-      <c r="C24" s="348" t="s">
+      <c r="C24" s="346" t="s">
         <v>62</v>
       </c>
-      <c r="D24" s="348" t="s">
+      <c r="D24" s="346" t="s">
         <v>62</v>
       </c>
       <c r="E24" s="53"/>
       <c r="F24" s="53"/>
-      <c r="G24" s="359"/>
-      <c r="H24" s="360"/>
-      <c r="I24" s="357" t="s">
+      <c r="G24" s="357"/>
+      <c r="H24" s="358"/>
+      <c r="I24" s="355" t="s">
         <v>79</v>
       </c>
       <c r="J24" s="78"/>
-      <c r="K24" s="347" t="s">
+      <c r="K24" s="345" t="s">
         <v>76</v>
       </c>
-      <c r="L24" s="346" t="s">
+      <c r="L24" s="344" t="s">
         <v>76</v>
       </c>
       <c r="M24" s="78"/>
       <c r="N24" s="204"/>
       <c r="O24" s="196"/>
-      <c r="P24" s="329"/>
-      <c r="Q24" s="329"/>
+      <c r="P24" s="327"/>
+      <c r="Q24" s="327"/>
       <c r="R24" s="78" t="s">
         <v>76</v>
       </c>
       <c r="S24" s="200" t="s">
         <v>79</v>
       </c>
-      <c r="T24" s="404"/>
-      <c r="U24" s="405"/>
-      <c r="V24" s="396"/>
-      <c r="W24" s="259"/>
+      <c r="T24" s="204"/>
+      <c r="U24" s="327"/>
+      <c r="V24" s="394"/>
+      <c r="W24" s="257"/>
       <c r="X24" s="104"/>
       <c r="Y24" s="78"/>
       <c r="Z24" s="78"/>
@@ -5763,8 +5794,8 @@
         <v>63</v>
       </c>
       <c r="AD24" s="141"/>
-      <c r="AE24" s="256"/>
-      <c r="AF24" s="279" t="s">
+      <c r="AE24" s="254"/>
+      <c r="AF24" s="277" t="s">
         <v>79</v>
       </c>
       <c r="AG24" s="200" t="s">
@@ -5773,14 +5804,14 @@
       <c r="AH24" s="106" t="s">
         <v>76</v>
       </c>
-      <c r="AI24" s="409"/>
-      <c r="AJ24" s="409"/>
-      <c r="AK24" s="397"/>
-      <c r="AL24" s="398"/>
+      <c r="AI24" s="395"/>
+      <c r="AJ24" s="395"/>
+      <c r="AK24" s="395"/>
+      <c r="AL24" s="396"/>
       <c r="AM24" s="33"/>
       <c r="AN24" s="33"/>
     </row>
-    <row r="25" spans="1:40" ht="18" customHeight="1">
+    <row r="25" spans="1:40" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="44" t="s">
         <v>82</v>
       </c>
@@ -5799,8 +5830,8 @@
       <c r="F25" s="192" t="s">
         <v>62</v>
       </c>
-      <c r="G25" s="359"/>
-      <c r="H25" s="360"/>
+      <c r="G25" s="357"/>
+      <c r="H25" s="358"/>
       <c r="I25" s="77"/>
       <c r="J25" s="63"/>
       <c r="K25" s="63"/>
@@ -5825,15 +5856,15 @@
       </c>
       <c r="U25" s="77"/>
       <c r="V25" s="141"/>
-      <c r="W25" s="256"/>
+      <c r="W25" s="254"/>
       <c r="X25" s="107"/>
       <c r="Y25" s="63"/>
       <c r="Z25" s="63"/>
       <c r="AA25" s="63"/>
       <c r="AB25" s="169"/>
       <c r="AC25" s="168"/>
-      <c r="AD25" s="274"/>
-      <c r="AE25" s="283"/>
+      <c r="AD25" s="272"/>
+      <c r="AE25" s="281"/>
       <c r="AF25" s="169"/>
       <c r="AG25" s="168"/>
       <c r="AH25" s="170"/>
@@ -5844,17 +5875,17 @@
       <c r="AM25" s="24"/>
       <c r="AN25" s="26"/>
     </row>
-    <row r="26" spans="1:40" ht="18" customHeight="1">
+    <row r="26" spans="1:40" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="40" t="s">
         <v>56</v>
       </c>
-      <c r="B26" s="406"/>
-      <c r="C26" s="407"/>
-      <c r="D26" s="407"/>
-      <c r="E26" s="407"/>
-      <c r="F26" s="407"/>
-      <c r="G26" s="407"/>
-      <c r="H26" s="408"/>
+      <c r="B26" s="402"/>
+      <c r="C26" s="403"/>
+      <c r="D26" s="403"/>
+      <c r="E26" s="403"/>
+      <c r="F26" s="403"/>
+      <c r="G26" s="403"/>
+      <c r="H26" s="404"/>
       <c r="I26" s="87"/>
       <c r="J26" s="88" t="s">
         <v>70</v>
@@ -5865,7 +5896,7 @@
       <c r="L26" s="87"/>
       <c r="M26" s="88"/>
       <c r="N26" s="167"/>
-      <c r="O26" s="394"/>
+      <c r="O26" s="392"/>
       <c r="P26" s="87"/>
       <c r="Q26" s="87"/>
       <c r="R26" s="88"/>
@@ -5879,15 +5910,15 @@
       <c r="V26" s="148" t="s">
         <v>70</v>
       </c>
-      <c r="W26" s="258"/>
+      <c r="W26" s="256"/>
       <c r="X26" s="111"/>
       <c r="Y26" s="88"/>
       <c r="Z26" s="88"/>
       <c r="AA26" s="88"/>
       <c r="AB26" s="183"/>
       <c r="AC26" s="182"/>
-      <c r="AD26" s="275"/>
-      <c r="AE26" s="284"/>
+      <c r="AD26" s="273"/>
+      <c r="AE26" s="282"/>
       <c r="AF26" s="87"/>
       <c r="AG26" s="88"/>
       <c r="AH26" s="167"/>
@@ -5902,7 +5933,7 @@
       <c r="AM26" s="24"/>
       <c r="AN26" s="26"/>
     </row>
-    <row r="27" spans="1:40" ht="18" customHeight="1" thickBot="1">
+    <row r="27" spans="1:40" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="51" t="s">
         <v>22</v>
       </c>
@@ -5919,7 +5950,7 @@
       </c>
       <c r="G27" s="194"/>
       <c r="H27" s="195"/>
-      <c r="I27" s="356" t="s">
+      <c r="I27" s="354" t="s">
         <v>79</v>
       </c>
       <c r="J27" s="201" t="s">
@@ -5935,7 +5966,7 @@
         <v>76</v>
       </c>
       <c r="N27" s="201"/>
-      <c r="O27" s="395"/>
+      <c r="O27" s="393"/>
       <c r="P27" s="117"/>
       <c r="Q27" s="117"/>
       <c r="R27" s="197"/>
@@ -5946,17 +5977,17 @@
       <c r="U27" s="198" t="s">
         <v>79</v>
       </c>
-      <c r="V27" s="246"/>
-      <c r="W27" s="260"/>
-      <c r="X27" s="240"/>
+      <c r="V27" s="244"/>
+      <c r="W27" s="258"/>
+      <c r="X27" s="238"/>
       <c r="Y27" s="116"/>
       <c r="Z27" s="116"/>
       <c r="AA27" s="116"/>
       <c r="AB27" s="117"/>
       <c r="AC27" s="116"/>
-      <c r="AD27" s="273"/>
-      <c r="AE27" s="266"/>
-      <c r="AF27" s="280" t="s">
+      <c r="AD27" s="271"/>
+      <c r="AE27" s="264"/>
+      <c r="AF27" s="278" t="s">
         <v>65</v>
       </c>
       <c r="AG27" s="202" t="s">
@@ -5981,7 +6012,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="28" spans="1:40" ht="18" customHeight="1">
+    <row r="28" spans="1:40" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="44" t="s">
         <v>21</v>
       </c>
@@ -5997,14 +6028,14 @@
       <c r="E28" s="221" t="s">
         <v>69</v>
       </c>
-      <c r="F28" s="313" t="s">
+      <c r="F28" s="311" t="s">
         <v>62</v>
       </c>
-      <c r="G28" s="313" t="s">
+      <c r="G28" s="311" t="s">
         <v>62</v>
       </c>
       <c r="H28" s="189"/>
-      <c r="I28" s="400" t="s">
+      <c r="I28" s="398" t="s">
         <v>67</v>
       </c>
       <c r="J28" s="213" t="s">
@@ -6022,8 +6053,8 @@
       <c r="N28" s="63" t="s">
         <v>67</v>
       </c>
-      <c r="O28" s="351"/>
-      <c r="P28" s="327"/>
+      <c r="O28" s="349"/>
+      <c r="P28" s="325"/>
       <c r="Q28" s="63"/>
       <c r="R28" s="223" t="s">
         <v>69</v>
@@ -6037,9 +6068,9 @@
       <c r="U28" s="224" t="s">
         <v>69</v>
       </c>
-      <c r="V28" s="241"/>
-      <c r="W28" s="261"/>
-      <c r="X28" s="401" t="s">
+      <c r="V28" s="239"/>
+      <c r="W28" s="259"/>
+      <c r="X28" s="399" t="s">
         <v>69</v>
       </c>
       <c r="Y28" s="223" t="s">
@@ -6051,12 +6082,12 @@
       <c r="AA28" s="223" t="s">
         <v>69</v>
       </c>
-      <c r="AB28" s="393" t="s">
+      <c r="AB28" s="391" t="s">
         <v>69</v>
       </c>
-      <c r="AC28" s="403"/>
-      <c r="AD28" s="402"/>
-      <c r="AE28" s="256"/>
+      <c r="AC28" s="401"/>
+      <c r="AD28" s="400"/>
+      <c r="AE28" s="254"/>
       <c r="AF28" s="77" t="s">
         <v>63</v>
       </c>
@@ -6064,25 +6095,25 @@
         <v>69</v>
       </c>
       <c r="AH28" s="168"/>
-      <c r="AI28" s="355"/>
-      <c r="AJ28" s="355"/>
+      <c r="AI28" s="353"/>
+      <c r="AJ28" s="353"/>
       <c r="AK28" s="170"/>
       <c r="AL28" s="187"/>
       <c r="AM28" s="24" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="29" spans="1:40" ht="18" customHeight="1">
+    <row r="29" spans="1:40" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="45" t="s">
         <v>114</v>
       </c>
       <c r="B29" s="188"/>
       <c r="C29" s="176"/>
       <c r="D29" s="191"/>
-      <c r="E29" s="312" t="s">
+      <c r="E29" s="310" t="s">
         <v>61</v>
       </c>
-      <c r="F29" s="312" t="s">
+      <c r="F29" s="310" t="s">
         <v>61</v>
       </c>
       <c r="G29" s="96"/>
@@ -6109,7 +6140,7 @@
       <c r="T29" s="88"/>
       <c r="U29" s="88"/>
       <c r="V29" s="148"/>
-      <c r="W29" s="258"/>
+      <c r="W29" s="256"/>
       <c r="X29" s="171"/>
       <c r="Y29" s="88" t="s">
         <v>61</v>
@@ -6117,19 +6148,19 @@
       <c r="Z29" s="88" t="s">
         <v>63</v>
       </c>
-      <c r="AA29" s="391" t="s">
+      <c r="AA29" s="389" t="s">
         <v>61</v>
       </c>
-      <c r="AB29" s="391" t="s">
+      <c r="AB29" s="389" t="s">
         <v>61</v>
       </c>
-      <c r="AC29" s="391" t="s">
+      <c r="AC29" s="389" t="s">
         <v>61</v>
       </c>
-      <c r="AD29" s="392" t="s">
+      <c r="AD29" s="390" t="s">
         <v>61</v>
       </c>
-      <c r="AE29" s="258"/>
+      <c r="AE29" s="256"/>
       <c r="AF29" s="171"/>
       <c r="AG29" s="167"/>
       <c r="AH29" s="164"/>
@@ -6147,7 +6178,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:40" ht="18" customHeight="1">
+    <row r="30" spans="1:40" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="42" t="s">
         <v>115</v>
       </c>
@@ -6188,15 +6219,15 @@
       </c>
       <c r="U30" s="91"/>
       <c r="V30" s="119"/>
-      <c r="W30" s="257"/>
+      <c r="W30" s="255"/>
       <c r="X30" s="90"/>
       <c r="Y30" s="91"/>
       <c r="Z30" s="91"/>
       <c r="AA30" s="91"/>
       <c r="AB30" s="91"/>
       <c r="AC30" s="120"/>
-      <c r="AD30" s="276"/>
-      <c r="AE30" s="285"/>
+      <c r="AD30" s="274"/>
+      <c r="AE30" s="283"/>
       <c r="AF30" s="90" t="s">
         <v>61</v>
       </c>
@@ -6216,7 +6247,7 @@
       <c r="AL30" s="121"/>
       <c r="AM30" s="26"/>
     </row>
-    <row r="31" spans="1:40" ht="18" customHeight="1">
+    <row r="31" spans="1:40" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="42" t="s">
         <v>5</v>
       </c>
@@ -6243,7 +6274,7 @@
       <c r="T31" s="91"/>
       <c r="U31" s="91"/>
       <c r="V31" s="119"/>
-      <c r="W31" s="257"/>
+      <c r="W31" s="255"/>
       <c r="X31" s="90"/>
       <c r="Y31" s="91"/>
       <c r="Z31" s="91"/>
@@ -6256,10 +6287,10 @@
       <c r="AC31" s="212" t="s">
         <v>61</v>
       </c>
-      <c r="AD31" s="277" t="s">
+      <c r="AD31" s="275" t="s">
         <v>61</v>
       </c>
-      <c r="AE31" s="257"/>
+      <c r="AE31" s="255"/>
       <c r="AF31" s="90">
         <v>15</v>
       </c>
@@ -6273,7 +6304,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="32" spans="1:40" ht="18" customHeight="1">
+    <row r="32" spans="1:40" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="12" t="s">
         <v>8</v>
       </c>
@@ -6297,8 +6328,8 @@
       <c r="S32" s="165"/>
       <c r="T32" s="165"/>
       <c r="U32" s="165"/>
-      <c r="V32" s="247"/>
-      <c r="W32" s="262"/>
+      <c r="V32" s="245"/>
+      <c r="W32" s="260"/>
       <c r="X32" s="90"/>
       <c r="Y32" s="91"/>
       <c r="Z32" s="91"/>
@@ -6306,7 +6337,7 @@
       <c r="AB32" s="91"/>
       <c r="AC32" s="91"/>
       <c r="AD32" s="119"/>
-      <c r="AE32" s="257"/>
+      <c r="AE32" s="255"/>
       <c r="AF32" s="90"/>
       <c r="AG32" s="91"/>
       <c r="AH32" s="91"/>
@@ -6318,7 +6349,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="33" spans="1:39" ht="18" customHeight="1">
+    <row r="33" spans="1:39" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="12" t="s">
         <v>96</v>
       </c>
@@ -6347,19 +6378,19 @@
       <c r="J33" s="123" t="s">
         <v>79</v>
       </c>
-      <c r="K33" s="304" t="s">
+      <c r="K33" s="302" t="s">
         <v>62</v>
       </c>
-      <c r="L33" s="304" t="s">
+      <c r="L33" s="302" t="s">
         <v>62</v>
       </c>
-      <c r="M33" s="305" t="s">
+      <c r="M33" s="303" t="s">
         <v>62</v>
       </c>
-      <c r="N33" s="305" t="s">
+      <c r="N33" s="303" t="s">
         <v>62</v>
       </c>
-      <c r="O33" s="306" t="s">
+      <c r="O33" s="304" t="s">
         <v>62</v>
       </c>
       <c r="P33" s="90" t="s">
@@ -6378,39 +6409,39 @@
       <c r="U33" s="165" t="s">
         <v>62</v>
       </c>
-      <c r="V33" s="307" t="s">
+      <c r="V33" s="305" t="s">
         <v>62</v>
       </c>
-      <c r="W33" s="262"/>
+      <c r="W33" s="260"/>
       <c r="X33" s="90"/>
       <c r="Y33" s="180"/>
       <c r="Z33" s="165" t="s">
         <v>62</v>
       </c>
-      <c r="AA33" s="308" t="s">
+      <c r="AA33" s="306" t="s">
         <v>75</v>
       </c>
-      <c r="AB33" s="308" t="s">
+      <c r="AB33" s="306" t="s">
         <v>75</v>
       </c>
-      <c r="AC33" s="308" t="s">
+      <c r="AC33" s="306" t="s">
         <v>75</v>
       </c>
-      <c r="AD33" s="247" t="s">
+      <c r="AD33" s="245" t="s">
         <v>75</v>
       </c>
-      <c r="AE33" s="262"/>
+      <c r="AE33" s="260"/>
       <c r="AF33" s="185"/>
       <c r="AG33" s="165" t="s">
         <v>62</v>
       </c>
-      <c r="AH33" s="309" t="s">
+      <c r="AH33" s="307" t="s">
         <v>75</v>
       </c>
-      <c r="AI33" s="309" t="s">
+      <c r="AI33" s="307" t="s">
         <v>75</v>
       </c>
-      <c r="AJ33" s="309" t="s">
+      <c r="AJ33" s="307" t="s">
         <v>75</v>
       </c>
       <c r="AK33" s="91"/>
@@ -6421,11 +6452,11 @@
         <v>29</v>
       </c>
     </row>
-    <row r="34" spans="1:39" ht="18" customHeight="1">
+    <row r="34" spans="1:39" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="42" t="s">
         <v>97</v>
       </c>
-      <c r="B34" s="310" t="s">
+      <c r="B34" s="308" t="s">
         <v>75</v>
       </c>
       <c r="C34" s="163" t="s">
@@ -6483,11 +6514,11 @@
       <c r="U34" s="167" t="s">
         <v>62</v>
       </c>
-      <c r="V34" s="311" t="s">
+      <c r="V34" s="309" t="s">
         <v>62</v>
       </c>
-      <c r="W34" s="263"/>
-      <c r="X34" s="251"/>
+      <c r="W34" s="261"/>
+      <c r="X34" s="249"/>
       <c r="Y34" s="167"/>
       <c r="Z34" s="167" t="s">
         <v>62</v>
@@ -6501,10 +6532,10 @@
       <c r="AC34" s="178" t="s">
         <v>75</v>
       </c>
-      <c r="AD34" s="278" t="s">
+      <c r="AD34" s="276" t="s">
         <v>75</v>
       </c>
-      <c r="AE34" s="286"/>
+      <c r="AE34" s="284"/>
       <c r="AF34" s="171"/>
       <c r="AG34" s="167" t="s">
         <v>62</v>
@@ -6518,7 +6549,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="35" spans="1:39" ht="18" customHeight="1" thickBot="1">
+    <row r="35" spans="1:39" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="43" t="s">
         <v>6</v>
       </c>
@@ -6556,40 +6587,40 @@
         <v>61</v>
       </c>
       <c r="M35" s="72"/>
-      <c r="N35" s="314"/>
-      <c r="O35" s="381"/>
+      <c r="N35" s="312"/>
+      <c r="O35" s="379"/>
       <c r="P35" s="222" t="s">
         <v>75</v>
       </c>
-      <c r="Q35" s="315" t="s">
+      <c r="Q35" s="313" t="s">
         <v>69</v>
       </c>
       <c r="R35" s="166"/>
       <c r="S35" s="166"/>
       <c r="T35" s="166"/>
       <c r="U35" s="166"/>
-      <c r="V35" s="248"/>
-      <c r="W35" s="264"/>
-      <c r="X35" s="354"/>
+      <c r="V35" s="246"/>
+      <c r="W35" s="262"/>
+      <c r="X35" s="352"/>
       <c r="Y35" s="226" t="s">
         <v>69</v>
       </c>
       <c r="Z35" s="225" t="s">
         <v>69</v>
       </c>
-      <c r="AA35" s="354" t="s">
+      <c r="AA35" s="352" t="s">
         <v>75</v>
       </c>
-      <c r="AB35" s="354" t="s">
+      <c r="AB35" s="352" t="s">
         <v>75</v>
       </c>
-      <c r="AC35" s="354" t="s">
+      <c r="AC35" s="352" t="s">
         <v>69</v>
       </c>
-      <c r="AD35" s="382" t="s">
+      <c r="AD35" s="380" t="s">
         <v>69</v>
       </c>
-      <c r="AE35" s="287">
+      <c r="AE35" s="285">
         <v>7</v>
       </c>
       <c r="AF35" s="225" t="s">
@@ -6613,11 +6644,11 @@
         <v>71</v>
       </c>
     </row>
-    <row r="36" spans="1:39" ht="18" customHeight="1">
+    <row r="36" spans="1:39" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="41" t="s">
         <v>101</v>
       </c>
-      <c r="B36" s="364" t="s">
+      <c r="B36" s="362" t="s">
         <v>66</v>
       </c>
       <c r="C36" s="102" t="s">
@@ -6635,7 +6666,7 @@
       <c r="G36" s="102" t="s">
         <v>61</v>
       </c>
-      <c r="H36" s="365" t="s">
+      <c r="H36" s="363" t="s">
         <v>61</v>
       </c>
       <c r="I36" s="103"/>
@@ -6666,7 +6697,7 @@
       <c r="V36" s="137" t="s">
         <v>66</v>
       </c>
-      <c r="W36" s="265"/>
+      <c r="W36" s="263"/>
       <c r="X36" s="103"/>
       <c r="Y36" s="78"/>
       <c r="Z36" s="78"/>
@@ -6674,7 +6705,7 @@
       <c r="AB36" s="78"/>
       <c r="AC36" s="78"/>
       <c r="AD36" s="137"/>
-      <c r="AE36" s="265"/>
+      <c r="AE36" s="263"/>
       <c r="AF36" s="103"/>
       <c r="AG36" s="78" t="s">
         <v>66</v>
@@ -6698,7 +6729,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="37" spans="1:39" ht="18" customHeight="1">
+    <row r="37" spans="1:39" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="50" t="s">
         <v>102</v>
       </c>
@@ -6731,7 +6762,7 @@
         <v>15</v>
       </c>
       <c r="V37" s="141"/>
-      <c r="W37" s="256"/>
+      <c r="W37" s="254"/>
       <c r="X37" s="77"/>
       <c r="Y37" s="63"/>
       <c r="Z37" s="63"/>
@@ -6739,7 +6770,7 @@
       <c r="AB37" s="23"/>
       <c r="AC37" s="63"/>
       <c r="AD37" s="141"/>
-      <c r="AE37" s="254"/>
+      <c r="AE37" s="252"/>
       <c r="AF37" s="65"/>
       <c r="AG37" s="65"/>
       <c r="AH37" s="23"/>
@@ -6751,7 +6782,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="38" spans="1:39" ht="18" customHeight="1">
+    <row r="38" spans="1:39" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="12" t="s">
         <v>109</v>
       </c>
@@ -6796,7 +6827,7 @@
       </c>
       <c r="U38" s="88"/>
       <c r="V38" s="148"/>
-      <c r="W38" s="258"/>
+      <c r="W38" s="256"/>
       <c r="X38" s="87" t="s">
         <v>66</v>
       </c>
@@ -6818,7 +6849,7 @@
       <c r="AD38" s="148" t="s">
         <v>67</v>
       </c>
-      <c r="AE38" s="257"/>
+      <c r="AE38" s="255"/>
       <c r="AF38" s="90"/>
       <c r="AG38" s="90"/>
       <c r="AH38" s="91"/>
@@ -6830,11 +6861,11 @@
         <v>28</v>
       </c>
     </row>
-    <row r="39" spans="1:39" ht="18" customHeight="1">
+    <row r="39" spans="1:39" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="42" t="s">
         <v>110</v>
       </c>
-      <c r="B39" s="380" t="s">
+      <c r="B39" s="378" t="s">
         <v>79</v>
       </c>
       <c r="C39" s="163"/>
@@ -6843,7 +6874,7 @@
       <c r="F39" s="84"/>
       <c r="G39" s="84"/>
       <c r="H39" s="97"/>
-      <c r="I39" s="379" t="s">
+      <c r="I39" s="377" t="s">
         <v>79</v>
       </c>
       <c r="J39" s="91" t="s">
@@ -6852,12 +6883,8 @@
       <c r="K39" s="91" t="s">
         <v>76</v>
       </c>
-      <c r="L39" s="91" t="s">
-        <v>76</v>
-      </c>
-      <c r="M39" s="91" t="s">
-        <v>76</v>
-      </c>
+      <c r="L39" s="91"/>
+      <c r="M39" s="91"/>
       <c r="N39" s="91"/>
       <c r="O39" s="127"/>
       <c r="P39" s="90"/>
@@ -6867,13 +6894,13 @@
       <c r="R39" s="91" t="s">
         <v>79</v>
       </c>
-      <c r="S39" s="308" t="s">
+      <c r="S39" s="306" t="s">
         <v>75</v>
       </c>
       <c r="T39" s="90"/>
       <c r="U39" s="90"/>
-      <c r="V39" s="239"/>
-      <c r="W39" s="257"/>
+      <c r="V39" s="237"/>
+      <c r="W39" s="255"/>
       <c r="X39" s="87"/>
       <c r="Y39" s="91"/>
       <c r="Z39" s="88"/>
@@ -6881,31 +6908,31 @@
       <c r="AB39" s="90"/>
       <c r="AC39" s="91"/>
       <c r="AD39" s="119"/>
-      <c r="AE39" s="257"/>
-      <c r="AF39" s="379" t="s">
+      <c r="AE39" s="255"/>
+      <c r="AF39" s="377" t="s">
         <v>79</v>
       </c>
-      <c r="AG39" s="379" t="s">
+      <c r="AG39" s="377" t="s">
         <v>79</v>
       </c>
-      <c r="AH39" s="309"/>
-      <c r="AI39" s="379" t="s">
+      <c r="AH39" s="307"/>
+      <c r="AI39" s="377" t="s">
         <v>76</v>
       </c>
-      <c r="AJ39" s="379" t="s">
+      <c r="AJ39" s="377" t="s">
         <v>76</v>
       </c>
-      <c r="AK39" s="309" t="s">
+      <c r="AK39" s="307" t="s">
         <v>76</v>
       </c>
-      <c r="AL39" s="399" t="s">
+      <c r="AL39" s="397" t="s">
         <v>76</v>
       </c>
       <c r="AM39" s="161" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="40" spans="1:39" ht="18" customHeight="1">
+    <row r="40" spans="1:39" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="42" t="s">
         <v>111</v>
       </c>
@@ -6926,23 +6953,17 @@
       <c r="L40" s="179" t="s">
         <v>62</v>
       </c>
-      <c r="M40" s="165" t="s">
-        <v>76</v>
-      </c>
-      <c r="N40" s="165" t="s">
-        <v>76</v>
-      </c>
-      <c r="O40" s="378" t="s">
-        <v>76</v>
-      </c>
+      <c r="M40" s="165"/>
+      <c r="N40" s="165"/>
+      <c r="O40" s="376"/>
       <c r="P40" s="90"/>
       <c r="Q40" s="91"/>
       <c r="R40" s="91"/>
       <c r="S40" s="90"/>
       <c r="T40" s="90"/>
       <c r="U40" s="90"/>
-      <c r="V40" s="239"/>
-      <c r="W40" s="257"/>
+      <c r="V40" s="237"/>
+      <c r="W40" s="255"/>
       <c r="X40" s="87"/>
       <c r="Y40" s="91"/>
       <c r="Z40" s="88"/>
@@ -6950,7 +6971,7 @@
       <c r="AB40" s="90"/>
       <c r="AC40" s="91"/>
       <c r="AD40" s="119"/>
-      <c r="AE40" s="257"/>
+      <c r="AE40" s="255"/>
       <c r="AF40" s="128"/>
       <c r="AG40" s="90"/>
       <c r="AH40" s="91"/>
@@ -6959,7 +6980,7 @@
       <c r="AK40" s="91"/>
       <c r="AL40" s="121"/>
     </row>
-    <row r="41" spans="1:39" ht="18" customHeight="1">
+    <row r="41" spans="1:39" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="42" t="s">
         <v>24</v>
       </c>
@@ -6970,25 +6991,25 @@
       <c r="F41" s="84"/>
       <c r="G41" s="84"/>
       <c r="H41" s="61"/>
-      <c r="I41" s="432"/>
-      <c r="J41" s="433"/>
+      <c r="I41" s="405"/>
+      <c r="J41" s="406"/>
       <c r="K41" s="91"/>
       <c r="L41" s="91"/>
       <c r="M41" s="91"/>
       <c r="N41" s="91"/>
       <c r="O41" s="127"/>
-      <c r="P41" s="335" t="s">
+      <c r="P41" s="333" t="s">
         <v>84</v>
       </c>
-      <c r="Q41" s="336" t="s">
+      <c r="Q41" s="334" t="s">
         <v>84</v>
       </c>
       <c r="R41" s="91"/>
       <c r="S41" s="90"/>
       <c r="T41" s="90"/>
       <c r="U41" s="90"/>
-      <c r="V41" s="239"/>
-      <c r="W41" s="258"/>
+      <c r="V41" s="237"/>
+      <c r="W41" s="256"/>
       <c r="X41" s="87"/>
       <c r="Y41" s="91"/>
       <c r="Z41" s="23"/>
@@ -6996,7 +7017,7 @@
       <c r="AB41" s="90"/>
       <c r="AC41" s="91"/>
       <c r="AD41" s="119"/>
-      <c r="AE41" s="257"/>
+      <c r="AE41" s="255"/>
       <c r="AF41" s="90"/>
       <c r="AG41" s="90"/>
       <c r="AH41" s="91"/>
@@ -7005,17 +7026,17 @@
       <c r="AK41" s="91"/>
       <c r="AL41" s="121"/>
     </row>
-    <row r="42" spans="1:39" ht="18" customHeight="1" thickBot="1">
+    <row r="42" spans="1:39" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42" s="43" t="s">
         <v>100</v>
       </c>
-      <c r="B42" s="349" t="s">
+      <c r="B42" s="347" t="s">
         <v>75</v>
       </c>
-      <c r="C42" s="350" t="s">
+      <c r="C42" s="348" t="s">
         <v>75</v>
       </c>
-      <c r="D42" s="350" t="s">
+      <c r="D42" s="348" t="s">
         <v>75</v>
       </c>
       <c r="E42" s="69" t="s">
@@ -7026,33 +7047,33 @@
       </c>
       <c r="G42" s="69"/>
       <c r="H42" s="70"/>
-      <c r="I42" s="358"/>
+      <c r="I42" s="356"/>
       <c r="J42" s="129"/>
       <c r="K42" s="129"/>
       <c r="L42" s="129"/>
       <c r="M42" s="129"/>
-      <c r="N42" s="352" t="s">
+      <c r="N42" s="350" t="s">
         <v>75</v>
       </c>
-      <c r="O42" s="353" t="s">
+      <c r="O42" s="351" t="s">
         <v>75</v>
       </c>
-      <c r="P42" s="354" t="s">
+      <c r="P42" s="352" t="s">
         <v>75</v>
       </c>
-      <c r="Q42" s="330" t="s">
+      <c r="Q42" s="328" t="s">
         <v>79</v>
       </c>
-      <c r="R42" s="361" t="s">
+      <c r="R42" s="359" t="s">
         <v>79</v>
       </c>
-      <c r="S42" s="354" t="s">
+      <c r="S42" s="352" t="s">
         <v>75</v>
       </c>
-      <c r="T42" s="330"/>
-      <c r="U42" s="330"/>
-      <c r="V42" s="362"/>
-      <c r="W42" s="266"/>
+      <c r="T42" s="328"/>
+      <c r="U42" s="328"/>
+      <c r="V42" s="360"/>
+      <c r="W42" s="264"/>
       <c r="X42" s="117"/>
       <c r="Y42" s="72" t="s">
         <v>66</v>
@@ -7069,29 +7090,29 @@
       <c r="AC42" s="72" t="s">
         <v>67</v>
       </c>
-      <c r="AD42" s="245" t="s">
+      <c r="AD42" s="243" t="s">
         <v>67</v>
       </c>
-      <c r="AE42" s="255"/>
-      <c r="AF42" s="314" t="s">
+      <c r="AE42" s="253"/>
+      <c r="AF42" s="312" t="s">
         <v>79</v>
       </c>
-      <c r="AG42" s="330" t="s">
+      <c r="AG42" s="328" t="s">
         <v>79</v>
       </c>
-      <c r="AH42" s="330" t="s">
+      <c r="AH42" s="328" t="s">
         <v>75</v>
       </c>
-      <c r="AI42" s="314" t="s">
+      <c r="AI42" s="312" t="s">
         <v>75</v>
       </c>
-      <c r="AJ42" s="330" t="s">
+      <c r="AJ42" s="328" t="s">
         <v>75</v>
       </c>
       <c r="AK42" s="72"/>
       <c r="AL42" s="130"/>
     </row>
-    <row r="43" spans="1:39" ht="22.15" customHeight="1">
+    <row r="43" spans="1:39" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="45" t="s">
         <v>13</v>
       </c>
@@ -7122,25 +7143,25 @@
       <c r="T43" s="88"/>
       <c r="U43" s="88"/>
       <c r="V43" s="148"/>
-      <c r="W43" s="258"/>
+      <c r="W43" s="256"/>
       <c r="X43" s="87"/>
       <c r="Y43" s="88"/>
-      <c r="Z43" s="291" t="s">
+      <c r="Z43" s="289" t="s">
         <v>60</v>
       </c>
-      <c r="AA43" s="291" t="s">
+      <c r="AA43" s="289" t="s">
         <v>60</v>
       </c>
-      <c r="AB43" s="291" t="s">
+      <c r="AB43" s="289" t="s">
         <v>60</v>
       </c>
-      <c r="AC43" s="289" t="s">
+      <c r="AC43" s="287" t="s">
         <v>84</v>
       </c>
-      <c r="AD43" s="290" t="s">
+      <c r="AD43" s="288" t="s">
         <v>84</v>
       </c>
-      <c r="AE43" s="286"/>
+      <c r="AE43" s="284"/>
       <c r="AF43" s="87" t="s">
         <v>68</v>
       </c>
@@ -7156,31 +7177,31 @@
       <c r="AL43" s="99"/>
       <c r="AM43" s="21"/>
     </row>
-    <row r="44" spans="1:39" ht="18" customHeight="1">
+    <row r="44" spans="1:39" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="42" t="s">
         <v>36</v>
       </c>
       <c r="B44" s="59"/>
-      <c r="C44" s="337" t="s">
+      <c r="C44" s="335" t="s">
         <v>60</v>
       </c>
-      <c r="D44" s="337" t="s">
+      <c r="D44" s="335" t="s">
         <v>60</v>
       </c>
       <c r="E44" s="84"/>
       <c r="F44" s="84"/>
       <c r="G44" s="84"/>
       <c r="H44" s="85"/>
-      <c r="I44" s="342" t="s">
+      <c r="I44" s="340" t="s">
         <v>60</v>
       </c>
-      <c r="J44" s="337" t="s">
+      <c r="J44" s="335" t="s">
         <v>60</v>
       </c>
-      <c r="K44" s="337" t="s">
+      <c r="K44" s="335" t="s">
         <v>60</v>
       </c>
-      <c r="L44" s="337" t="s">
+      <c r="L44" s="335" t="s">
         <v>60</v>
       </c>
       <c r="M44" s="91"/>
@@ -7193,7 +7214,7 @@
       <c r="T44" s="91"/>
       <c r="U44" s="91"/>
       <c r="V44" s="119"/>
-      <c r="W44" s="257"/>
+      <c r="W44" s="255"/>
       <c r="X44" s="90"/>
       <c r="Y44" s="91"/>
       <c r="Z44" s="91"/>
@@ -7201,7 +7222,7 @@
       <c r="AB44" s="91"/>
       <c r="AC44" s="91"/>
       <c r="AD44" s="119"/>
-      <c r="AE44" s="257"/>
+      <c r="AE44" s="255"/>
       <c r="AF44" s="90"/>
       <c r="AG44" s="91"/>
       <c r="AH44" s="91"/>
@@ -7211,7 +7232,7 @@
       <c r="AL44" s="99"/>
       <c r="AM44" s="21"/>
     </row>
-    <row r="45" spans="1:39" ht="18" customHeight="1">
+    <row r="45" spans="1:39" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="12" t="s">
         <v>41</v>
       </c>
@@ -7251,13 +7272,13 @@
       <c r="O45" s="92" t="s">
         <v>60</v>
       </c>
-      <c r="P45" s="299" t="s">
+      <c r="P45" s="297" t="s">
         <v>64</v>
       </c>
-      <c r="Q45" s="301" t="s">
+      <c r="Q45" s="299" t="s">
         <v>64</v>
       </c>
-      <c r="R45" s="300" t="s">
+      <c r="R45" s="298" t="s">
         <v>64</v>
       </c>
       <c r="S45" s="91" t="s">
@@ -7268,7 +7289,7 @@
       </c>
       <c r="U45" s="91"/>
       <c r="V45" s="119"/>
-      <c r="W45" s="257"/>
+      <c r="W45" s="255"/>
       <c r="X45" s="90" t="s">
         <v>60</v>
       </c>
@@ -7290,7 +7311,7 @@
       <c r="AD45" s="119" t="s">
         <v>60</v>
       </c>
-      <c r="AE45" s="257"/>
+      <c r="AE45" s="255"/>
       <c r="AF45" s="90"/>
       <c r="AG45" s="91"/>
       <c r="AH45" s="91"/>
@@ -7304,7 +7325,7 @@
       </c>
       <c r="AM45" s="21"/>
     </row>
-    <row r="46" spans="1:39" ht="18" customHeight="1" thickBot="1">
+    <row r="46" spans="1:39" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A46" s="43" t="s">
         <v>57</v>
       </c>
@@ -7335,7 +7356,7 @@
       <c r="T46" s="91"/>
       <c r="U46" s="91"/>
       <c r="V46" s="119"/>
-      <c r="W46" s="257"/>
+      <c r="W46" s="255"/>
       <c r="X46" s="90"/>
       <c r="Y46" s="91"/>
       <c r="Z46" s="120"/>
@@ -7343,7 +7364,7 @@
       <c r="AB46" s="91"/>
       <c r="AC46" s="91"/>
       <c r="AD46" s="119"/>
-      <c r="AE46" s="257"/>
+      <c r="AE46" s="255"/>
       <c r="AF46" s="90"/>
       <c r="AG46" s="91"/>
       <c r="AH46" s="91"/>
@@ -7353,7 +7374,7 @@
       <c r="AL46" s="67"/>
       <c r="AM46" s="21"/>
     </row>
-    <row r="47" spans="1:39" ht="18" customHeight="1">
+    <row r="47" spans="1:39" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="44" t="s">
         <v>58</v>
       </c>
@@ -7377,9 +7398,7 @@
       <c r="I47" s="103" t="s">
         <v>76</v>
       </c>
-      <c r="J47" s="78" t="s">
-        <v>66</v>
-      </c>
+      <c r="J47" s="78"/>
       <c r="K47" s="78" t="s">
         <v>66</v>
       </c>
@@ -7404,7 +7423,7 @@
       <c r="T47" s="78"/>
       <c r="U47" s="78"/>
       <c r="V47" s="137"/>
-      <c r="W47" s="265"/>
+      <c r="W47" s="263"/>
       <c r="X47" s="103" t="s">
         <v>61</v>
       </c>
@@ -7422,7 +7441,7 @@
       </c>
       <c r="AC47" s="131"/>
       <c r="AD47" s="137"/>
-      <c r="AE47" s="265"/>
+      <c r="AE47" s="263"/>
       <c r="AF47" s="103" t="s">
         <v>66</v>
       </c>
@@ -7441,7 +7460,7 @@
       <c r="AK47" s="78"/>
       <c r="AL47" s="125"/>
     </row>
-    <row r="48" spans="1:39" ht="18" customHeight="1">
+    <row r="48" spans="1:39" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="40" t="s">
         <v>108</v>
       </c>
@@ -7470,7 +7489,7 @@
       <c r="T48" s="88"/>
       <c r="U48" s="88"/>
       <c r="V48" s="148"/>
-      <c r="W48" s="258"/>
+      <c r="W48" s="256"/>
       <c r="X48" s="87"/>
       <c r="Y48" s="87"/>
       <c r="Z48" s="88"/>
@@ -7478,7 +7497,7 @@
       <c r="AB48" s="88"/>
       <c r="AC48" s="88"/>
       <c r="AD48" s="148"/>
-      <c r="AE48" s="258"/>
+      <c r="AE48" s="256"/>
       <c r="AF48" s="87"/>
       <c r="AG48" s="88"/>
       <c r="AH48" s="88"/>
@@ -7487,7 +7506,7 @@
       <c r="AK48" s="88"/>
       <c r="AL48" s="99"/>
     </row>
-    <row r="49" spans="1:39" ht="18" customHeight="1" thickBot="1">
+    <row r="49" spans="1:39" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A49" s="8" t="s">
         <v>85</v>
       </c>
@@ -7523,16 +7542,16 @@
       <c r="S49" s="72"/>
       <c r="T49" s="72"/>
       <c r="U49" s="72"/>
-      <c r="V49" s="245"/>
-      <c r="W49" s="255"/>
+      <c r="V49" s="243"/>
+      <c r="W49" s="253"/>
       <c r="X49" s="74"/>
       <c r="Y49" s="72"/>
       <c r="Z49" s="72"/>
       <c r="AA49" s="72"/>
       <c r="AB49" s="72"/>
       <c r="AC49" s="72"/>
-      <c r="AD49" s="245"/>
-      <c r="AE49" s="255"/>
+      <c r="AD49" s="243"/>
+      <c r="AE49" s="253"/>
       <c r="AF49" s="74"/>
       <c r="AG49" s="72"/>
       <c r="AH49" s="72"/>
@@ -7541,7 +7560,7 @@
       <c r="AK49" s="72"/>
       <c r="AL49" s="75"/>
     </row>
-    <row r="50" spans="1:39" ht="18" customHeight="1">
+    <row r="50" spans="1:39" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="34" t="s">
         <v>46</v>
       </c>
@@ -7595,11 +7614,11 @@
       <c r="U50" s="210" t="s">
         <v>84</v>
       </c>
-      <c r="V50" s="249" t="s">
+      <c r="V50" s="247" t="s">
         <v>84</v>
       </c>
-      <c r="W50" s="261"/>
-      <c r="X50" s="252"/>
+      <c r="W50" s="259"/>
+      <c r="X50" s="250"/>
       <c r="Y50" s="106"/>
       <c r="Z50" s="207" t="s">
         <v>84</v>
@@ -7612,8 +7631,8 @@
       </c>
       <c r="AC50" s="123"/>
       <c r="AD50" s="160"/>
-      <c r="AE50" s="267"/>
-      <c r="AF50" s="281" t="s">
+      <c r="AE50" s="265"/>
+      <c r="AF50" s="279" t="s">
         <v>84</v>
       </c>
       <c r="AG50" s="207" t="s">
@@ -7635,7 +7654,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="51" spans="1:39" ht="18" customHeight="1">
+    <row r="51" spans="1:39" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="37" t="s">
         <v>99</v>
       </c>
@@ -7653,35 +7672,35 @@
       <c r="M51" s="141"/>
       <c r="N51" s="141"/>
       <c r="O51" s="64"/>
-      <c r="P51" s="331"/>
-      <c r="Q51" s="332"/>
+      <c r="P51" s="329"/>
+      <c r="Q51" s="330"/>
       <c r="R51" s="210"/>
-      <c r="S51" s="333"/>
-      <c r="T51" s="241"/>
+      <c r="S51" s="331"/>
+      <c r="T51" s="239"/>
       <c r="U51" s="210"/>
-      <c r="V51" s="334"/>
-      <c r="W51" s="261"/>
-      <c r="X51" s="333" t="s">
+      <c r="V51" s="332"/>
+      <c r="W51" s="259"/>
+      <c r="X51" s="331" t="s">
         <v>60</v>
       </c>
-      <c r="Y51" s="332" t="s">
+      <c r="Y51" s="330" t="s">
         <v>60</v>
       </c>
-      <c r="Z51" s="332"/>
-      <c r="AA51" s="332"/>
-      <c r="AB51" s="332"/>
+      <c r="Z51" s="330"/>
+      <c r="AA51" s="330"/>
+      <c r="AB51" s="330"/>
       <c r="AC51" s="122"/>
       <c r="AD51" s="160"/>
-      <c r="AE51" s="267"/>
-      <c r="AF51" s="333"/>
-      <c r="AG51" s="332"/>
-      <c r="AH51" s="332"/>
-      <c r="AI51" s="332"/>
-      <c r="AJ51" s="241"/>
+      <c r="AE51" s="265"/>
+      <c r="AF51" s="331"/>
+      <c r="AG51" s="330"/>
+      <c r="AH51" s="330"/>
+      <c r="AI51" s="330"/>
+      <c r="AJ51" s="239"/>
       <c r="AK51" s="210"/>
       <c r="AL51" s="211"/>
     </row>
-    <row r="52" spans="1:39" ht="18" customHeight="1">
+    <row r="52" spans="1:39" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="37" t="s">
         <v>47</v>
       </c>
@@ -7724,7 +7743,7 @@
       </c>
       <c r="U52" s="123"/>
       <c r="V52" s="145"/>
-      <c r="W52" s="267"/>
+      <c r="W52" s="265"/>
       <c r="X52" s="143" t="s">
         <v>60</v>
       </c>
@@ -7746,7 +7765,7 @@
       <c r="AD52" s="160" t="s">
         <v>60</v>
       </c>
-      <c r="AE52" s="267"/>
+      <c r="AE52" s="265"/>
       <c r="AF52" s="143"/>
       <c r="AG52" s="118"/>
       <c r="AH52" s="118"/>
@@ -7756,7 +7775,7 @@
       <c r="AL52" s="138"/>
       <c r="AM52" s="33"/>
     </row>
-    <row r="53" spans="1:39" ht="18" customHeight="1">
+    <row r="53" spans="1:39" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="48" t="s">
         <v>45</v>
       </c>
@@ -7774,20 +7793,20 @@
       <c r="M53" s="141"/>
       <c r="N53" s="141"/>
       <c r="O53" s="64"/>
-      <c r="P53" s="343" t="s">
+      <c r="P53" s="341" t="s">
         <v>64</v>
       </c>
-      <c r="Q53" s="344" t="s">
+      <c r="Q53" s="342" t="s">
         <v>64</v>
       </c>
-      <c r="R53" s="345" t="s">
+      <c r="R53" s="343" t="s">
         <v>64</v>
       </c>
       <c r="S53" s="143"/>
       <c r="T53" s="144"/>
       <c r="U53" s="123"/>
       <c r="V53" s="145"/>
-      <c r="W53" s="267"/>
+      <c r="W53" s="265"/>
       <c r="X53" s="143"/>
       <c r="Y53" s="118"/>
       <c r="Z53" s="118"/>
@@ -7795,7 +7814,7 @@
       <c r="AB53" s="118"/>
       <c r="AC53" s="122"/>
       <c r="AD53" s="160"/>
-      <c r="AE53" s="267"/>
+      <c r="AE53" s="265"/>
       <c r="AF53" s="143" t="s">
         <v>68</v>
       </c>
@@ -7811,7 +7830,7 @@
       <c r="AL53" s="138"/>
       <c r="AM53" s="33"/>
     </row>
-    <row r="54" spans="1:39" ht="18" customHeight="1">
+    <row r="54" spans="1:39" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="37" t="s">
         <v>44</v>
       </c>
@@ -7872,7 +7891,7 @@
       <c r="V54" s="145" t="s">
         <v>68</v>
       </c>
-      <c r="W54" s="267"/>
+      <c r="W54" s="265"/>
       <c r="X54" s="143" t="s">
         <v>64</v>
       </c>
@@ -7894,7 +7913,7 @@
       <c r="AD54" s="160" t="s">
         <v>64</v>
       </c>
-      <c r="AE54" s="267"/>
+      <c r="AE54" s="265"/>
       <c r="AF54" s="143"/>
       <c r="AG54" s="118"/>
       <c r="AH54" s="118"/>
@@ -7912,7 +7931,7 @@
       </c>
       <c r="AM54" s="38"/>
     </row>
-    <row r="55" spans="1:39" ht="18" customHeight="1">
+    <row r="55" spans="1:39" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="13" t="s">
         <v>48</v>
       </c>
@@ -7951,7 +7970,7 @@
       <c r="T55" s="123"/>
       <c r="U55" s="123"/>
       <c r="V55" s="145"/>
-      <c r="W55" s="268"/>
+      <c r="W55" s="266"/>
       <c r="X55" s="122" t="s">
         <v>64</v>
       </c>
@@ -7973,7 +7992,7 @@
       <c r="AD55" s="160" t="s">
         <v>64</v>
       </c>
-      <c r="AE55" s="268"/>
+      <c r="AE55" s="266"/>
       <c r="AF55" s="122"/>
       <c r="AG55" s="123"/>
       <c r="AH55" s="123"/>
@@ -7983,7 +8002,7 @@
       <c r="AL55" s="99"/>
       <c r="AM55" s="38"/>
     </row>
-    <row r="56" spans="1:39" ht="18" customHeight="1">
+    <row r="56" spans="1:39" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="13" t="s">
         <v>49</v>
       </c>
@@ -8042,7 +8061,7 @@
       <c r="V56" s="145" t="s">
         <v>68</v>
       </c>
-      <c r="W56" s="268"/>
+      <c r="W56" s="266"/>
       <c r="X56" s="122" t="s">
         <v>64</v>
       </c>
@@ -8064,7 +8083,7 @@
       <c r="AD56" s="160" t="s">
         <v>64</v>
       </c>
-      <c r="AE56" s="268"/>
+      <c r="AE56" s="266"/>
       <c r="AF56" s="122"/>
       <c r="AG56" s="122"/>
       <c r="AH56" s="123"/>
@@ -8082,7 +8101,7 @@
       </c>
       <c r="AM56" s="39"/>
     </row>
-    <row r="57" spans="1:39" ht="18" customHeight="1">
+    <row r="57" spans="1:39" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="49" t="s">
         <v>40</v>
       </c>
@@ -8111,7 +8130,7 @@
       <c r="T57" s="122"/>
       <c r="U57" s="123"/>
       <c r="V57" s="145"/>
-      <c r="W57" s="268"/>
+      <c r="W57" s="266"/>
       <c r="X57" s="95" t="s">
         <v>70</v>
       </c>
@@ -8133,7 +8152,7 @@
       <c r="AD57" s="160" t="s">
         <v>70</v>
       </c>
-      <c r="AE57" s="268"/>
+      <c r="AE57" s="266"/>
       <c r="AF57" s="122"/>
       <c r="AG57" s="123"/>
       <c r="AH57" s="123" t="s">
@@ -8152,7 +8171,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="58" spans="1:39" ht="18" customHeight="1">
+    <row r="58" spans="1:39" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="12" t="s">
         <v>83</v>
       </c>
@@ -8184,8 +8203,8 @@
       <c r="S58" s="184"/>
       <c r="T58" s="184"/>
       <c r="U58" s="184"/>
-      <c r="V58" s="242"/>
-      <c r="W58" s="269"/>
+      <c r="V58" s="240"/>
+      <c r="W58" s="267"/>
       <c r="X58" s="95" t="s">
         <v>70</v>
       </c>
@@ -8207,7 +8226,7 @@
       <c r="AD58" s="160" t="s">
         <v>70</v>
       </c>
-      <c r="AE58" s="267"/>
+      <c r="AE58" s="265"/>
       <c r="AF58" s="199"/>
       <c r="AG58" s="199"/>
       <c r="AH58" s="143" t="s">
@@ -8226,7 +8245,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="59" spans="1:39" ht="18" customHeight="1">
+    <row r="59" spans="1:39" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="12" t="s">
         <v>59</v>
       </c>
@@ -8265,7 +8284,7 @@
       <c r="V59" s="145" t="s">
         <v>68</v>
       </c>
-      <c r="W59" s="268"/>
+      <c r="W59" s="266"/>
       <c r="X59" s="95"/>
       <c r="Y59" s="96"/>
       <c r="Z59" s="96"/>
@@ -8273,7 +8292,7 @@
       <c r="AB59" s="122"/>
       <c r="AC59" s="122"/>
       <c r="AD59" s="160"/>
-      <c r="AE59" s="267"/>
+      <c r="AE59" s="265"/>
       <c r="AF59" s="143" t="s">
         <v>68</v>
       </c>
@@ -8296,46 +8315,46 @@
         <v>68</v>
       </c>
     </row>
-    <row r="60" spans="1:39" ht="20.25" customHeight="1">
+    <row r="60" spans="1:39" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="13" t="s">
         <v>95</v>
       </c>
       <c r="B60" s="205"/>
-      <c r="C60" s="316" t="s">
+      <c r="C60" s="314" t="s">
         <v>62</v>
       </c>
-      <c r="D60" s="316" t="s">
+      <c r="D60" s="314" t="s">
         <v>62</v>
       </c>
-      <c r="E60" s="317" t="s">
+      <c r="E60" s="315" t="s">
         <v>62</v>
       </c>
-      <c r="F60" s="318" t="s">
+      <c r="F60" s="316" t="s">
         <v>69</v>
       </c>
       <c r="G60" s="173" t="s">
         <v>62</v>
       </c>
       <c r="H60" s="174"/>
-      <c r="I60" s="319" t="s">
+      <c r="I60" s="317" t="s">
         <v>69</v>
       </c>
-      <c r="J60" s="320" t="s">
+      <c r="J60" s="318" t="s">
         <v>69</v>
       </c>
-      <c r="K60" s="320" t="s">
+      <c r="K60" s="318" t="s">
         <v>69</v>
       </c>
-      <c r="L60" s="321" t="s">
+      <c r="L60" s="319" t="s">
         <v>69</v>
       </c>
-      <c r="M60" s="317" t="s">
+      <c r="M60" s="315" t="s">
         <v>62</v>
       </c>
       <c r="N60" s="172" t="s">
         <v>62</v>
       </c>
-      <c r="O60" s="322" t="s">
+      <c r="O60" s="320" t="s">
         <v>62</v>
       </c>
       <c r="P60" s="167" t="s">
@@ -8353,13 +8372,13 @@
       <c r="T60" s="164" t="s">
         <v>62</v>
       </c>
-      <c r="U60" s="251" t="s">
+      <c r="U60" s="249" t="s">
         <v>62</v>
       </c>
-      <c r="V60" s="323" t="s">
+      <c r="V60" s="321" t="s">
         <v>62</v>
       </c>
-      <c r="W60" s="324"/>
+      <c r="W60" s="322"/>
       <c r="X60" s="171" t="s">
         <v>69</v>
       </c>
@@ -8378,20 +8397,20 @@
       <c r="AC60" s="167" t="s">
         <v>69</v>
       </c>
-      <c r="AD60" s="278" t="s">
+      <c r="AD60" s="276" t="s">
         <v>69</v>
       </c>
-      <c r="AE60" s="325"/>
-      <c r="AF60" s="326" t="s">
+      <c r="AE60" s="323"/>
+      <c r="AF60" s="324" t="s">
         <v>69</v>
       </c>
-      <c r="AG60" s="327" t="s">
+      <c r="AG60" s="325" t="s">
         <v>62</v>
       </c>
-      <c r="AH60" s="327" t="s">
+      <c r="AH60" s="325" t="s">
         <v>69</v>
       </c>
-      <c r="AI60" s="327" t="s">
+      <c r="AI60" s="325" t="s">
         <v>69</v>
       </c>
       <c r="AJ60" s="172" t="s">
@@ -8400,12 +8419,12 @@
       <c r="AK60" s="172" t="s">
         <v>69</v>
       </c>
-      <c r="AL60" s="328" t="s">
+      <c r="AL60" s="326" t="s">
         <v>69</v>
       </c>
       <c r="AM60" s="22"/>
     </row>
-    <row r="61" spans="1:39" ht="13.5" thickBot="1">
+    <row r="61" spans="1:39" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B61" s="14"/>
       <c r="C61" s="14"/>
       <c r="D61" s="14"/>
@@ -8444,8 +8463,8 @@
       <c r="AK61" s="14"/>
       <c r="AL61" s="14"/>
     </row>
-    <row r="62" spans="1:39" ht="20.25">
-      <c r="A62" s="388" t="s">
+    <row r="62" spans="1:39" ht="21" x14ac:dyDescent="0.4">
+      <c r="A62" s="386" t="s">
         <v>112</v>
       </c>
       <c r="B62" s="418" t="s">
@@ -8475,7 +8494,7 @@
       <c r="T62" s="418"/>
       <c r="U62" s="418"/>
       <c r="V62" s="418"/>
-      <c r="W62" s="385"/>
+      <c r="W62" s="383"/>
       <c r="X62" s="418" t="s">
         <v>21</v>
       </c>
@@ -8485,7 +8504,7 @@
       <c r="AB62" s="418"/>
       <c r="AC62" s="418"/>
       <c r="AD62" s="418"/>
-      <c r="AE62" s="385"/>
+      <c r="AE62" s="383"/>
       <c r="AF62" s="418" t="s">
         <v>117</v>
       </c>
@@ -8496,133 +8515,133 @@
       <c r="AK62" s="418"/>
       <c r="AL62" s="419"/>
     </row>
-    <row r="63" spans="1:39" ht="20.25">
-      <c r="A63" s="389" t="s">
+    <row r="63" spans="1:39" ht="21" x14ac:dyDescent="0.4">
+      <c r="A63" s="387" t="s">
         <v>113</v>
       </c>
-      <c r="B63" s="414" t="s">
+      <c r="B63" s="420" t="s">
         <v>54</v>
       </c>
-      <c r="C63" s="415"/>
-      <c r="D63" s="415"/>
-      <c r="E63" s="415"/>
-      <c r="F63" s="415"/>
-      <c r="G63" s="415"/>
-      <c r="H63" s="416"/>
-      <c r="I63" s="414" t="s">
+      <c r="C63" s="421"/>
+      <c r="D63" s="421"/>
+      <c r="E63" s="421"/>
+      <c r="F63" s="421"/>
+      <c r="G63" s="421"/>
+      <c r="H63" s="422"/>
+      <c r="I63" s="420" t="s">
         <v>55</v>
       </c>
-      <c r="J63" s="415"/>
-      <c r="K63" s="415"/>
-      <c r="L63" s="415"/>
-      <c r="M63" s="415"/>
-      <c r="N63" s="415"/>
-      <c r="O63" s="416"/>
-      <c r="P63" s="414" t="s">
+      <c r="J63" s="421"/>
+      <c r="K63" s="421"/>
+      <c r="L63" s="421"/>
+      <c r="M63" s="421"/>
+      <c r="N63" s="421"/>
+      <c r="O63" s="422"/>
+      <c r="P63" s="420" t="s">
         <v>26</v>
       </c>
-      <c r="Q63" s="415"/>
-      <c r="R63" s="415"/>
-      <c r="S63" s="415"/>
-      <c r="T63" s="415"/>
-      <c r="U63" s="415"/>
-      <c r="V63" s="416"/>
-      <c r="W63" s="386"/>
-      <c r="X63" s="414" t="s">
+      <c r="Q63" s="421"/>
+      <c r="R63" s="421"/>
+      <c r="S63" s="421"/>
+      <c r="T63" s="421"/>
+      <c r="U63" s="421"/>
+      <c r="V63" s="422"/>
+      <c r="W63" s="384"/>
+      <c r="X63" s="420" t="s">
         <v>55</v>
       </c>
-      <c r="Y63" s="415"/>
-      <c r="Z63" s="415"/>
-      <c r="AA63" s="415"/>
-      <c r="AB63" s="415"/>
-      <c r="AC63" s="415"/>
-      <c r="AD63" s="416"/>
-      <c r="AE63" s="386"/>
-      <c r="AF63" s="414" t="s">
+      <c r="Y63" s="421"/>
+      <c r="Z63" s="421"/>
+      <c r="AA63" s="421"/>
+      <c r="AB63" s="421"/>
+      <c r="AC63" s="421"/>
+      <c r="AD63" s="422"/>
+      <c r="AE63" s="384"/>
+      <c r="AF63" s="420" t="s">
         <v>119</v>
       </c>
-      <c r="AG63" s="415"/>
-      <c r="AH63" s="415"/>
-      <c r="AI63" s="415"/>
-      <c r="AJ63" s="415"/>
-      <c r="AK63" s="415"/>
-      <c r="AL63" s="417"/>
-    </row>
-    <row r="64" spans="1:39" ht="21" thickBot="1">
-      <c r="A64" s="390" t="s">
+      <c r="AG63" s="421"/>
+      <c r="AH63" s="421"/>
+      <c r="AI63" s="421"/>
+      <c r="AJ63" s="421"/>
+      <c r="AK63" s="421"/>
+      <c r="AL63" s="423"/>
+    </row>
+    <row r="64" spans="1:39" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A64" s="388" t="s">
         <v>9</v>
       </c>
-      <c r="B64" s="410" t="s">
+      <c r="B64" s="424" t="s">
         <v>118</v>
       </c>
-      <c r="C64" s="411"/>
-      <c r="D64" s="411"/>
-      <c r="E64" s="411"/>
-      <c r="F64" s="411"/>
-      <c r="G64" s="411"/>
-      <c r="H64" s="413"/>
-      <c r="I64" s="410" t="s">
+      <c r="C64" s="425"/>
+      <c r="D64" s="425"/>
+      <c r="E64" s="425"/>
+      <c r="F64" s="425"/>
+      <c r="G64" s="425"/>
+      <c r="H64" s="427"/>
+      <c r="I64" s="424" t="s">
         <v>41</v>
       </c>
-      <c r="J64" s="411"/>
-      <c r="K64" s="411"/>
-      <c r="L64" s="411"/>
-      <c r="M64" s="411"/>
-      <c r="N64" s="411"/>
-      <c r="O64" s="413"/>
-      <c r="P64" s="410" t="s">
+      <c r="J64" s="425"/>
+      <c r="K64" s="425"/>
+      <c r="L64" s="425"/>
+      <c r="M64" s="425"/>
+      <c r="N64" s="425"/>
+      <c r="O64" s="427"/>
+      <c r="P64" s="424" t="s">
         <v>81</v>
       </c>
-      <c r="Q64" s="411"/>
-      <c r="R64" s="411"/>
-      <c r="S64" s="411"/>
-      <c r="T64" s="411"/>
-      <c r="U64" s="411"/>
-      <c r="V64" s="413"/>
-      <c r="W64" s="387"/>
-      <c r="X64" s="410" t="s">
+      <c r="Q64" s="425"/>
+      <c r="R64" s="425"/>
+      <c r="S64" s="425"/>
+      <c r="T64" s="425"/>
+      <c r="U64" s="425"/>
+      <c r="V64" s="427"/>
+      <c r="W64" s="385"/>
+      <c r="X64" s="424" t="s">
         <v>39</v>
       </c>
-      <c r="Y64" s="411"/>
-      <c r="Z64" s="411"/>
-      <c r="AA64" s="411"/>
-      <c r="AB64" s="411"/>
-      <c r="AC64" s="411"/>
-      <c r="AD64" s="413"/>
-      <c r="AE64" s="387"/>
-      <c r="AF64" s="410" t="s">
+      <c r="Y64" s="425"/>
+      <c r="Z64" s="425"/>
+      <c r="AA64" s="425"/>
+      <c r="AB64" s="425"/>
+      <c r="AC64" s="425"/>
+      <c r="AD64" s="427"/>
+      <c r="AE64" s="385"/>
+      <c r="AF64" s="424" t="s">
         <v>52</v>
       </c>
-      <c r="AG64" s="411"/>
-      <c r="AH64" s="411"/>
-      <c r="AI64" s="411"/>
-      <c r="AJ64" s="411"/>
-      <c r="AK64" s="411"/>
-      <c r="AL64" s="412"/>
+      <c r="AG64" s="425"/>
+      <c r="AH64" s="425"/>
+      <c r="AI64" s="425"/>
+      <c r="AJ64" s="425"/>
+      <c r="AK64" s="425"/>
+      <c r="AL64" s="426"/>
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="AF64:AL64"/>
+    <mergeCell ref="X64:AD64"/>
+    <mergeCell ref="P64:V64"/>
+    <mergeCell ref="I64:O64"/>
+    <mergeCell ref="B64:H64"/>
+    <mergeCell ref="B63:H63"/>
+    <mergeCell ref="I63:O63"/>
+    <mergeCell ref="P63:V63"/>
+    <mergeCell ref="X63:AD63"/>
+    <mergeCell ref="AF63:AL63"/>
+    <mergeCell ref="AF62:AL62"/>
+    <mergeCell ref="X62:AD62"/>
+    <mergeCell ref="B62:H62"/>
+    <mergeCell ref="I62:O62"/>
+    <mergeCell ref="P62:V62"/>
     <mergeCell ref="A1:AL1"/>
     <mergeCell ref="B2:H2"/>
     <mergeCell ref="I2:O2"/>
     <mergeCell ref="P2:V2"/>
     <mergeCell ref="AE2:AL2"/>
     <mergeCell ref="W2:AD2"/>
-    <mergeCell ref="AF62:AL62"/>
-    <mergeCell ref="X62:AD62"/>
-    <mergeCell ref="B62:H62"/>
-    <mergeCell ref="I62:O62"/>
-    <mergeCell ref="P62:V62"/>
-    <mergeCell ref="B63:H63"/>
-    <mergeCell ref="I63:O63"/>
-    <mergeCell ref="P63:V63"/>
-    <mergeCell ref="X63:AD63"/>
-    <mergeCell ref="AF63:AL63"/>
-    <mergeCell ref="AF64:AL64"/>
-    <mergeCell ref="X64:AD64"/>
-    <mergeCell ref="P64:V64"/>
-    <mergeCell ref="I64:O64"/>
-    <mergeCell ref="B64:H64"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
@@ -8634,35 +8653,35 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B1:D43"/>
   <sheetViews>
     <sheetView topLeftCell="A15" workbookViewId="0">
       <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.85546875" style="46"/>
-    <col min="2" max="2" width="16.42578125" style="46" customWidth="1"/>
-    <col min="3" max="3" width="11.140625" style="46" customWidth="1"/>
-    <col min="4" max="4" width="27.7109375" style="46" customWidth="1"/>
-    <col min="5" max="16384" width="8.85546875" style="46"/>
+    <col min="1" max="1" width="8.88671875" style="46"/>
+    <col min="2" max="2" width="16.44140625" style="46" customWidth="1"/>
+    <col min="3" max="3" width="11.109375" style="46" customWidth="1"/>
+    <col min="4" max="4" width="27.6640625" style="46" customWidth="1"/>
+    <col min="5" max="16384" width="8.88671875" style="46"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:4" ht="18.75">
-      <c r="B1" s="431" t="s">
+    <row r="1" spans="2:4" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="B1" s="428" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="431"/>
-      <c r="D1" s="431"/>
-    </row>
-    <row r="2" spans="2:4" ht="18.75" thickBot="1">
-      <c r="B2" s="295"/>
+      <c r="C1" s="428"/>
+      <c r="D1" s="428"/>
+    </row>
+    <row r="2" spans="2:4" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="293"/>
       <c r="C2" s="16"/>
       <c r="D2" s="17"/>
     </row>
-    <row r="3" spans="2:4" ht="18.75" thickBot="1">
+    <row r="3" spans="2:4" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="35"/>
       <c r="C3" s="16" t="s">
         <v>18</v>
@@ -8671,12 +8690,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="2:4" ht="18.75" thickBot="1">
-      <c r="B4" s="296"/>
+    <row r="4" spans="2:4" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B4" s="294"/>
       <c r="C4" s="16"/>
       <c r="D4" s="17"/>
     </row>
-    <row r="5" spans="2:4" ht="18.75" thickBot="1">
+    <row r="5" spans="2:4" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B5" s="31"/>
       <c r="C5" s="16" t="s">
         <v>18</v>
@@ -8685,12 +8704,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="2:4" ht="18.75" thickBot="1">
-      <c r="B6" s="295"/>
+    <row r="6" spans="2:4" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B6" s="293"/>
       <c r="C6" s="16"/>
       <c r="D6" s="17"/>
     </row>
-    <row r="7" spans="2:4" ht="18.75" thickBot="1">
+    <row r="7" spans="2:4" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B7" s="28"/>
       <c r="C7" s="16" t="s">
         <v>18</v>
@@ -8699,26 +8718,26 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="2:4" ht="18.75" thickBot="1">
-      <c r="B8" s="295"/>
+    <row r="8" spans="2:4" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B8" s="293"/>
       <c r="C8" s="16"/>
       <c r="D8" s="17"/>
     </row>
-    <row r="9" spans="2:4" ht="18.75" thickBot="1">
-      <c r="B9" s="366"/>
-      <c r="C9" s="297" t="s">
+    <row r="9" spans="2:4" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B9" s="364"/>
+      <c r="C9" s="295" t="s">
         <v>18</v>
       </c>
       <c r="D9" s="17">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="2:4" ht="18.75" thickBot="1">
-      <c r="B10" s="295"/>
+    <row r="10" spans="2:4" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B10" s="293"/>
       <c r="C10" s="16"/>
       <c r="D10" s="17"/>
     </row>
-    <row r="11" spans="2:4" ht="18.75" thickBot="1">
+    <row r="11" spans="2:4" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B11" s="18"/>
       <c r="C11" s="16" t="s">
         <v>18</v>
@@ -8727,12 +8746,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="2:4" ht="18.75" thickBot="1">
-      <c r="B12" s="296"/>
+    <row r="12" spans="2:4" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B12" s="294"/>
       <c r="C12" s="16"/>
       <c r="D12" s="17"/>
     </row>
-    <row r="13" spans="2:4" ht="18.75" thickBot="1">
+    <row r="13" spans="2:4" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B13" s="47"/>
       <c r="C13" s="16" t="s">
         <v>18</v>
@@ -8741,12 +8760,12 @@
         <v>86</v>
       </c>
     </row>
-    <row r="14" spans="2:4" ht="18.75" thickBot="1">
-      <c r="B14" s="298"/>
+    <row r="14" spans="2:4" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B14" s="296"/>
       <c r="C14" s="16"/>
       <c r="D14" s="17"/>
     </row>
-    <row r="15" spans="2:4" ht="18.75" thickBot="1">
+    <row r="15" spans="2:4" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B15" s="29"/>
       <c r="C15" s="16" t="s">
         <v>18</v>
@@ -8755,13 +8774,13 @@
         <v>31</v>
       </c>
     </row>
-    <row r="16" spans="2:4" ht="18.75" thickBot="1">
-      <c r="B16" s="295"/>
+    <row r="16" spans="2:4" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B16" s="293"/>
       <c r="C16" s="16"/>
       <c r="D16" s="17"/>
     </row>
-    <row r="17" spans="2:4" ht="18.75" thickBot="1">
-      <c r="B17" s="367"/>
+    <row r="17" spans="2:4" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B17" s="365"/>
       <c r="C17" s="16" t="s">
         <v>18</v>
       </c>
@@ -8769,13 +8788,13 @@
         <v>88</v>
       </c>
     </row>
-    <row r="18" spans="2:4" ht="18.75" thickBot="1">
-      <c r="B18" s="295"/>
+    <row r="18" spans="2:4" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B18" s="293"/>
       <c r="C18" s="16"/>
       <c r="D18" s="17"/>
     </row>
-    <row r="19" spans="2:4" ht="18.75" thickBot="1">
-      <c r="B19" s="368"/>
+    <row r="19" spans="2:4" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B19" s="366"/>
       <c r="C19" s="16" t="s">
         <v>18</v>
       </c>
@@ -8783,13 +8802,13 @@
         <v>104</v>
       </c>
     </row>
-    <row r="20" spans="2:4" ht="18.75" thickBot="1">
-      <c r="B20" s="295"/>
+    <row r="20" spans="2:4" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B20" s="293"/>
       <c r="C20" s="16"/>
       <c r="D20" s="17"/>
     </row>
-    <row r="21" spans="2:4" ht="18.75" thickBot="1">
-      <c r="B21" s="369"/>
+    <row r="21" spans="2:4" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B21" s="367"/>
       <c r="C21" s="16" t="s">
         <v>18</v>
       </c>
@@ -8797,13 +8816,13 @@
         <v>91</v>
       </c>
     </row>
-    <row r="22" spans="2:4" ht="18.75" thickBot="1">
-      <c r="B22" s="295"/>
+    <row r="22" spans="2:4" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B22" s="293"/>
       <c r="C22" s="16"/>
       <c r="D22" s="17"/>
     </row>
-    <row r="23" spans="2:4" ht="18.75" thickBot="1">
-      <c r="B23" s="370"/>
+    <row r="23" spans="2:4" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B23" s="368"/>
       <c r="C23" s="16" t="s">
         <v>18</v>
       </c>
@@ -8811,12 +8830,12 @@
         <v>94</v>
       </c>
     </row>
-    <row r="24" spans="2:4" ht="18.75" thickBot="1">
-      <c r="B24" s="295"/>
+    <row r="24" spans="2:4" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B24" s="293"/>
       <c r="C24" s="16"/>
       <c r="D24" s="17"/>
     </row>
-    <row r="25" spans="2:4" ht="18.75" thickBot="1">
+    <row r="25" spans="2:4" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B25" s="19"/>
       <c r="C25" s="16" t="s">
         <v>18</v>
@@ -8825,24 +8844,24 @@
         <v>90</v>
       </c>
     </row>
-    <row r="26" spans="2:4" ht="18.75" thickBot="1">
-      <c r="B26" s="371"/>
+    <row r="26" spans="2:4" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B26" s="369"/>
       <c r="C26" s="16"/>
       <c r="D26" s="17"/>
     </row>
-    <row r="27" spans="2:4" ht="18.75" thickBot="1">
+    <row r="27" spans="2:4" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B27" s="36"/>
       <c r="C27" s="16"/>
       <c r="D27" s="17" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="28" spans="2:4" ht="15.75" thickBot="1">
-      <c r="B28" s="295"/>
-      <c r="C28" s="295"/>
+    <row r="28" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B28" s="293"/>
+      <c r="C28" s="293"/>
       <c r="D28" s="17"/>
     </row>
-    <row r="29" spans="2:4" ht="21" thickBot="1">
+    <row r="29" spans="2:4" ht="21" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B29" s="20"/>
       <c r="C29" s="16" t="s">
         <v>18</v>
@@ -8851,12 +8870,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="30" spans="2:4" ht="15.75" thickBot="1">
-      <c r="B30" s="295"/>
-      <c r="C30" s="295"/>
-      <c r="D30" s="295"/>
-    </row>
-    <row r="31" spans="2:4" ht="18.75" thickBot="1">
+    <row r="30" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B30" s="293"/>
+      <c r="C30" s="293"/>
+      <c r="D30" s="293"/>
+    </row>
+    <row r="31" spans="2:4" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B31" s="30"/>
       <c r="C31" s="16" t="s">
         <v>18</v>
@@ -8865,13 +8884,13 @@
         <v>20</v>
       </c>
     </row>
-    <row r="32" spans="2:4" ht="15.75" thickBot="1">
-      <c r="B32" s="295"/>
-      <c r="C32" s="295"/>
+    <row r="32" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B32" s="293"/>
+      <c r="C32" s="293"/>
       <c r="D32" s="17"/>
     </row>
-    <row r="33" spans="2:4" ht="18.75" thickBot="1">
-      <c r="B33" s="372"/>
+    <row r="33" spans="2:4" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B33" s="370"/>
       <c r="C33" s="16" t="s">
         <v>18</v>
       </c>
@@ -8879,13 +8898,13 @@
         <v>89</v>
       </c>
     </row>
-    <row r="34" spans="2:4" ht="15.75" thickBot="1">
-      <c r="B34" s="295"/>
-      <c r="C34" s="295"/>
-      <c r="D34" s="295"/>
-    </row>
-    <row r="35" spans="2:4" ht="18.75" thickBot="1">
-      <c r="B35" s="373"/>
+    <row r="34" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B34" s="293"/>
+      <c r="C34" s="293"/>
+      <c r="D34" s="293"/>
+    </row>
+    <row r="35" spans="2:4" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B35" s="371"/>
       <c r="C35" s="16" t="s">
         <v>18</v>
       </c>
@@ -8893,13 +8912,13 @@
         <v>92</v>
       </c>
     </row>
-    <row r="36" spans="2:4" ht="15.75" thickBot="1">
-      <c r="B36" s="295"/>
-      <c r="C36" s="295"/>
-      <c r="D36" s="295"/>
-    </row>
-    <row r="37" spans="2:4" ht="18.75" thickBot="1">
-      <c r="B37" s="374"/>
+    <row r="36" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B36" s="293"/>
+      <c r="C36" s="293"/>
+      <c r="D36" s="293"/>
+    </row>
+    <row r="37" spans="2:4" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B37" s="372"/>
       <c r="C37" s="16" t="s">
         <v>18</v>
       </c>
@@ -8907,9 +8926,9 @@
         <v>93</v>
       </c>
     </row>
-    <row r="38" spans="2:4" ht="15.75" thickBot="1"/>
-    <row r="39" spans="2:4" ht="18.75" thickBot="1">
-      <c r="B39" s="375"/>
+    <row r="38" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="39" spans="2:4" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B39" s="373"/>
       <c r="C39" s="16" t="s">
         <v>18</v>
       </c>
@@ -8917,9 +8936,9 @@
         <v>105</v>
       </c>
     </row>
-    <row r="40" spans="2:4" ht="15.75" thickBot="1"/>
-    <row r="41" spans="2:4" ht="18.75" thickBot="1">
-      <c r="B41" s="376"/>
+    <row r="40" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="41" spans="2:4" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B41" s="374"/>
       <c r="C41" s="16" t="s">
         <v>18</v>
       </c>
@@ -8927,9 +8946,9 @@
         <v>106</v>
       </c>
     </row>
-    <row r="42" spans="2:4" ht="15.75" thickBot="1"/>
-    <row r="43" spans="2:4" ht="18.75" thickBot="1">
-      <c r="B43" s="377"/>
+    <row r="42" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="43" spans="2:4" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B43" s="375"/>
       <c r="C43" s="16" t="s">
         <v>18</v>
       </c>
